--- a/自动化分析报告/result_excel/result_2_3/baseline_2_3_week.xlsx
+++ b/自动化分析报告/result_excel/result_2_3/baseline_2_3_week.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="35">
   <si>
     <t>二级分类含义</t>
   </si>
@@ -79,7 +79,46 @@
     <t>银行收支</t>
   </si>
   <si>
-    <t>2019-06-05</t>
+    <t>2019-03-01</t>
+  </si>
+  <si>
+    <t>2019-03-07</t>
+  </si>
+  <si>
+    <t>2019-03-13</t>
+  </si>
+  <si>
+    <t>2019-03-19</t>
+  </si>
+  <si>
+    <t>2019-03-25</t>
+  </si>
+  <si>
+    <t>2019-03-31</t>
+  </si>
+  <si>
+    <t>2019-04-06</t>
+  </si>
+  <si>
+    <t>2019-04-12</t>
+  </si>
+  <si>
+    <t>2019-04-18</t>
+  </si>
+  <si>
+    <t>2019-04-24</t>
+  </si>
+  <si>
+    <t>2019-04-30</t>
+  </si>
+  <si>
+    <t>2019-05-06</t>
+  </si>
+  <si>
+    <t>2019-05-12</t>
+  </si>
+  <si>
+    <t>2019-05-18</t>
   </si>
 </sst>
 </file>
@@ -437,7 +476,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D239"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -462,10 +501,10 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>46492922</v>
+        <v>19963960</v>
       </c>
       <c r="C2">
-        <v>36550146</v>
+        <v>17390593</v>
       </c>
       <c r="D2" t="s">
         <v>21</v>
@@ -476,10 +515,10 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>129760468</v>
+        <v>108231913</v>
       </c>
       <c r="C3">
-        <v>101280397</v>
+        <v>101364751</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -490,10 +529,10 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>197691937</v>
+        <v>149893829</v>
       </c>
       <c r="C4">
-        <v>152298123</v>
+        <v>126547342</v>
       </c>
       <c r="D4" t="s">
         <v>21</v>
@@ -504,10 +543,10 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>1812254</v>
+        <v>1043404</v>
       </c>
       <c r="C5">
-        <v>1555798</v>
+        <v>957470</v>
       </c>
       <c r="D5" t="s">
         <v>21</v>
@@ -518,10 +557,10 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>728466538</v>
+        <v>128525193</v>
       </c>
       <c r="C6">
-        <v>538044695</v>
+        <v>113533959</v>
       </c>
       <c r="D6" t="s">
         <v>21</v>
@@ -532,10 +571,10 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>28159655</v>
+        <v>31661914</v>
       </c>
       <c r="C7">
-        <v>22410099</v>
+        <v>27937219</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
@@ -546,10 +585,10 @@
         <v>10</v>
       </c>
       <c r="B8">
-        <v>32161242</v>
+        <v>30154557</v>
       </c>
       <c r="C8">
-        <v>26656889</v>
+        <v>27724921</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
@@ -560,10 +599,10 @@
         <v>11</v>
       </c>
       <c r="B9">
-        <v>1203302</v>
+        <v>810624</v>
       </c>
       <c r="C9">
-        <v>939286</v>
+        <v>707801</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
@@ -574,10 +613,10 @@
         <v>12</v>
       </c>
       <c r="B10">
-        <v>79152830</v>
+        <v>167819012</v>
       </c>
       <c r="C10">
-        <v>61973883</v>
+        <v>140126967</v>
       </c>
       <c r="D10" t="s">
         <v>21</v>
@@ -588,10 +627,10 @@
         <v>13</v>
       </c>
       <c r="B11">
-        <v>14119335</v>
+        <v>22687176</v>
       </c>
       <c r="C11">
-        <v>9774677</v>
+        <v>20250437</v>
       </c>
       <c r="D11" t="s">
         <v>21</v>
@@ -602,10 +641,10 @@
         <v>14</v>
       </c>
       <c r="B12">
-        <v>23322352</v>
+        <v>22711133</v>
       </c>
       <c r="C12">
-        <v>18679270</v>
+        <v>20167254</v>
       </c>
       <c r="D12" t="s">
         <v>21</v>
@@ -616,10 +655,10 @@
         <v>15</v>
       </c>
       <c r="B13">
-        <v>45090832</v>
+        <v>144712646</v>
       </c>
       <c r="C13">
-        <v>36248220</v>
+        <v>137579924</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
@@ -630,10 +669,10 @@
         <v>16</v>
       </c>
       <c r="B14">
-        <v>72645579</v>
+        <v>224833413</v>
       </c>
       <c r="C14">
-        <v>58703715</v>
+        <v>206214050</v>
       </c>
       <c r="D14" t="s">
         <v>21</v>
@@ -644,10 +683,10 @@
         <v>17</v>
       </c>
       <c r="B15">
-        <v>26757384</v>
+        <v>44827664</v>
       </c>
       <c r="C15">
-        <v>20158420</v>
+        <v>36872944</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
@@ -658,10 +697,10 @@
         <v>18</v>
       </c>
       <c r="B16">
-        <v>1044781412</v>
+        <v>1744343842</v>
       </c>
       <c r="C16">
-        <v>923111883</v>
+        <v>1483708373</v>
       </c>
       <c r="D16" t="s">
         <v>21</v>
@@ -672,10 +711,10 @@
         <v>19</v>
       </c>
       <c r="B17">
-        <v>61895818</v>
+        <v>29180770</v>
       </c>
       <c r="C17">
-        <v>58710776</v>
+        <v>27423522</v>
       </c>
       <c r="D17" t="s">
         <v>21</v>
@@ -686,13 +725,3107 @@
         <v>20</v>
       </c>
       <c r="B18">
-        <v>1388846712</v>
+        <v>521346966</v>
       </c>
       <c r="C18">
-        <v>763337783</v>
+        <v>379577188</v>
       </c>
       <c r="D18" t="s">
         <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19">
+        <v>38897744</v>
+      </c>
+      <c r="C19">
+        <v>31028193</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20">
+        <v>84651826</v>
+      </c>
+      <c r="C20">
+        <v>71645397</v>
+      </c>
+      <c r="D20" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21">
+        <v>244476291</v>
+      </c>
+      <c r="C21">
+        <v>191567086</v>
+      </c>
+      <c r="D21" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>7</v>
+      </c>
+      <c r="B22">
+        <v>1784130</v>
+      </c>
+      <c r="C22">
+        <v>1516103</v>
+      </c>
+      <c r="D22" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23">
+        <v>419961808</v>
+      </c>
+      <c r="C23">
+        <v>340854166</v>
+      </c>
+      <c r="D23" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24">
+        <v>55567974</v>
+      </c>
+      <c r="C24">
+        <v>47156511</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25">
+        <v>48259469</v>
+      </c>
+      <c r="C25">
+        <v>41830211</v>
+      </c>
+      <c r="D25" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
+        <v>11</v>
+      </c>
+      <c r="B26">
+        <v>1693130</v>
+      </c>
+      <c r="C26">
+        <v>1345812</v>
+      </c>
+      <c r="D26" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" t="s">
+        <v>12</v>
+      </c>
+      <c r="B27">
+        <v>186729291</v>
+      </c>
+      <c r="C27">
+        <v>140385468</v>
+      </c>
+      <c r="D27" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" t="s">
+        <v>13</v>
+      </c>
+      <c r="B28">
+        <v>42909826</v>
+      </c>
+      <c r="C28">
+        <v>34865842</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" t="s">
+        <v>14</v>
+      </c>
+      <c r="B29">
+        <v>45126668</v>
+      </c>
+      <c r="C29">
+        <v>36851790</v>
+      </c>
+      <c r="D29" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" t="s">
+        <v>15</v>
+      </c>
+      <c r="B30">
+        <v>141047186</v>
+      </c>
+      <c r="C30">
+        <v>127471544</v>
+      </c>
+      <c r="D30" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" t="s">
+        <v>16</v>
+      </c>
+      <c r="B31">
+        <v>290768346</v>
+      </c>
+      <c r="C31">
+        <v>263773827</v>
+      </c>
+      <c r="D31" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" t="s">
+        <v>17</v>
+      </c>
+      <c r="B32">
+        <v>129773329</v>
+      </c>
+      <c r="C32">
+        <v>75992005</v>
+      </c>
+      <c r="D32" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" t="s">
+        <v>18</v>
+      </c>
+      <c r="B33">
+        <v>2382783322</v>
+      </c>
+      <c r="C33">
+        <v>1917251908</v>
+      </c>
+      <c r="D33" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" t="s">
+        <v>19</v>
+      </c>
+      <c r="B34">
+        <v>35298656</v>
+      </c>
+      <c r="C34">
+        <v>32826695</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" t="s">
+        <v>20</v>
+      </c>
+      <c r="B35">
+        <v>1001612553</v>
+      </c>
+      <c r="C35">
+        <v>584769318</v>
+      </c>
+      <c r="D35" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" t="s">
+        <v>4</v>
+      </c>
+      <c r="B36">
+        <v>52976570</v>
+      </c>
+      <c r="C36">
+        <v>41627782</v>
+      </c>
+      <c r="D36" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" t="s">
+        <v>5</v>
+      </c>
+      <c r="B37">
+        <v>110376548</v>
+      </c>
+      <c r="C37">
+        <v>92887226</v>
+      </c>
+      <c r="D37" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" t="s">
+        <v>6</v>
+      </c>
+      <c r="B38">
+        <v>281048863</v>
+      </c>
+      <c r="C38">
+        <v>216107136</v>
+      </c>
+      <c r="D38" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" t="s">
+        <v>7</v>
+      </c>
+      <c r="B39">
+        <v>4339846</v>
+      </c>
+      <c r="C39">
+        <v>3797170</v>
+      </c>
+      <c r="D39" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" t="s">
+        <v>8</v>
+      </c>
+      <c r="B40">
+        <v>608049536</v>
+      </c>
+      <c r="C40">
+        <v>490196066</v>
+      </c>
+      <c r="D40" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" t="s">
+        <v>9</v>
+      </c>
+      <c r="B41">
+        <v>132957566</v>
+      </c>
+      <c r="C41">
+        <v>109548569</v>
+      </c>
+      <c r="D41" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" t="s">
+        <v>10</v>
+      </c>
+      <c r="B42">
+        <v>65612245</v>
+      </c>
+      <c r="C42">
+        <v>55849235</v>
+      </c>
+      <c r="D42" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" t="s">
+        <v>11</v>
+      </c>
+      <c r="B43">
+        <v>1872531</v>
+      </c>
+      <c r="C43">
+        <v>1448777</v>
+      </c>
+      <c r="D43" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" t="s">
+        <v>12</v>
+      </c>
+      <c r="B44">
+        <v>243927680</v>
+      </c>
+      <c r="C44">
+        <v>183104144</v>
+      </c>
+      <c r="D44" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" t="s">
+        <v>13</v>
+      </c>
+      <c r="B45">
+        <v>52287838</v>
+      </c>
+      <c r="C45">
+        <v>41390822</v>
+      </c>
+      <c r="D45" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" t="s">
+        <v>14</v>
+      </c>
+      <c r="B46">
+        <v>61841311</v>
+      </c>
+      <c r="C46">
+        <v>49364616</v>
+      </c>
+      <c r="D46" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" t="s">
+        <v>15</v>
+      </c>
+      <c r="B47">
+        <v>160880427</v>
+      </c>
+      <c r="C47">
+        <v>141543781</v>
+      </c>
+      <c r="D47" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" t="s">
+        <v>16</v>
+      </c>
+      <c r="B48">
+        <v>423686709</v>
+      </c>
+      <c r="C48">
+        <v>377380731</v>
+      </c>
+      <c r="D48" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" t="s">
+        <v>17</v>
+      </c>
+      <c r="B49">
+        <v>196900578</v>
+      </c>
+      <c r="C49">
+        <v>107014281</v>
+      </c>
+      <c r="D49" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" t="s">
+        <v>18</v>
+      </c>
+      <c r="B50">
+        <v>3285644477</v>
+      </c>
+      <c r="C50">
+        <v>2551722173</v>
+      </c>
+      <c r="D50" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" t="s">
+        <v>19</v>
+      </c>
+      <c r="B51">
+        <v>42116661</v>
+      </c>
+      <c r="C51">
+        <v>38840932</v>
+      </c>
+      <c r="D51" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" t="s">
+        <v>20</v>
+      </c>
+      <c r="B52">
+        <v>1385513190</v>
+      </c>
+      <c r="C52">
+        <v>776431609</v>
+      </c>
+      <c r="D52" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" t="s">
+        <v>4</v>
+      </c>
+      <c r="B53">
+        <v>37192519</v>
+      </c>
+      <c r="C53">
+        <v>29508102</v>
+      </c>
+      <c r="D53" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" t="s">
+        <v>5</v>
+      </c>
+      <c r="B54">
+        <v>71468340</v>
+      </c>
+      <c r="C54">
+        <v>61842411</v>
+      </c>
+      <c r="D54" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" t="s">
+        <v>6</v>
+      </c>
+      <c r="B55">
+        <v>171403874</v>
+      </c>
+      <c r="C55">
+        <v>141206177</v>
+      </c>
+      <c r="D55" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" t="s">
+        <v>7</v>
+      </c>
+      <c r="B56">
+        <v>1724011</v>
+      </c>
+      <c r="C56">
+        <v>1533559</v>
+      </c>
+      <c r="D56" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" t="s">
+        <v>8</v>
+      </c>
+      <c r="B57">
+        <v>296005804</v>
+      </c>
+      <c r="C57">
+        <v>239897667</v>
+      </c>
+      <c r="D57" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" t="s">
+        <v>9</v>
+      </c>
+      <c r="B58">
+        <v>70426862</v>
+      </c>
+      <c r="C58">
+        <v>62023218</v>
+      </c>
+      <c r="D58" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" t="s">
+        <v>10</v>
+      </c>
+      <c r="B59">
+        <v>36342657</v>
+      </c>
+      <c r="C59">
+        <v>31590312</v>
+      </c>
+      <c r="D59" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" t="s">
+        <v>11</v>
+      </c>
+      <c r="B60">
+        <v>1085160</v>
+      </c>
+      <c r="C60">
+        <v>857162</v>
+      </c>
+      <c r="D60" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" t="s">
+        <v>12</v>
+      </c>
+      <c r="B61">
+        <v>128217954</v>
+      </c>
+      <c r="C61">
+        <v>97729650</v>
+      </c>
+      <c r="D61" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" t="s">
+        <v>13</v>
+      </c>
+      <c r="B62">
+        <v>37443190</v>
+      </c>
+      <c r="C62">
+        <v>32301675</v>
+      </c>
+      <c r="D62" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" t="s">
+        <v>14</v>
+      </c>
+      <c r="B63">
+        <v>44972772</v>
+      </c>
+      <c r="C63">
+        <v>38130445</v>
+      </c>
+      <c r="D63" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" t="s">
+        <v>15</v>
+      </c>
+      <c r="B64">
+        <v>129258611</v>
+      </c>
+      <c r="C64">
+        <v>120156624</v>
+      </c>
+      <c r="D64" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" t="s">
+        <v>16</v>
+      </c>
+      <c r="B65">
+        <v>187311426</v>
+      </c>
+      <c r="C65">
+        <v>169397262</v>
+      </c>
+      <c r="D65" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" t="s">
+        <v>17</v>
+      </c>
+      <c r="B66">
+        <v>118338114</v>
+      </c>
+      <c r="C66">
+        <v>60792531</v>
+      </c>
+      <c r="D66" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" t="s">
+        <v>18</v>
+      </c>
+      <c r="B67">
+        <v>2044304161</v>
+      </c>
+      <c r="C67">
+        <v>1589045938</v>
+      </c>
+      <c r="D67" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" t="s">
+        <v>19</v>
+      </c>
+      <c r="B68">
+        <v>22798843</v>
+      </c>
+      <c r="C68">
+        <v>21469676</v>
+      </c>
+      <c r="D68" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" t="s">
+        <v>20</v>
+      </c>
+      <c r="B69">
+        <v>797125417</v>
+      </c>
+      <c r="C69">
+        <v>488526543</v>
+      </c>
+      <c r="D69" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" t="s">
+        <v>4</v>
+      </c>
+      <c r="B70">
+        <v>3451267</v>
+      </c>
+      <c r="C70">
+        <v>3104424</v>
+      </c>
+      <c r="D70" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" t="s">
+        <v>5</v>
+      </c>
+      <c r="B71">
+        <v>9092491</v>
+      </c>
+      <c r="C71">
+        <v>8620761</v>
+      </c>
+      <c r="D71" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" t="s">
+        <v>6</v>
+      </c>
+      <c r="B72">
+        <v>19925422</v>
+      </c>
+      <c r="C72">
+        <v>18512425</v>
+      </c>
+      <c r="D72" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" t="s">
+        <v>7</v>
+      </c>
+      <c r="B73">
+        <v>243436</v>
+      </c>
+      <c r="C73">
+        <v>214812</v>
+      </c>
+      <c r="D73" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" t="s">
+        <v>8</v>
+      </c>
+      <c r="B74">
+        <v>29909580</v>
+      </c>
+      <c r="C74">
+        <v>27448739</v>
+      </c>
+      <c r="D74" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" t="s">
+        <v>9</v>
+      </c>
+      <c r="B75">
+        <v>3519740</v>
+      </c>
+      <c r="C75">
+        <v>3292876</v>
+      </c>
+      <c r="D75" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" t="s">
+        <v>10</v>
+      </c>
+      <c r="B76">
+        <v>3294614</v>
+      </c>
+      <c r="C76">
+        <v>3125048</v>
+      </c>
+      <c r="D76" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" t="s">
+        <v>11</v>
+      </c>
+      <c r="B77">
+        <v>117256</v>
+      </c>
+      <c r="C77">
+        <v>103285</v>
+      </c>
+      <c r="D77" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" t="s">
+        <v>12</v>
+      </c>
+      <c r="B78">
+        <v>12119486</v>
+      </c>
+      <c r="C78">
+        <v>10560299</v>
+      </c>
+      <c r="D78" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" t="s">
+        <v>13</v>
+      </c>
+      <c r="B79">
+        <v>2702124</v>
+      </c>
+      <c r="C79">
+        <v>2498194</v>
+      </c>
+      <c r="D79" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" t="s">
+        <v>14</v>
+      </c>
+      <c r="B80">
+        <v>2659560</v>
+      </c>
+      <c r="C80">
+        <v>2412822</v>
+      </c>
+      <c r="D80" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" t="s">
+        <v>15</v>
+      </c>
+      <c r="B81">
+        <v>6574157</v>
+      </c>
+      <c r="C81">
+        <v>6226325</v>
+      </c>
+      <c r="D81" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" t="s">
+        <v>16</v>
+      </c>
+      <c r="B82">
+        <v>20313999</v>
+      </c>
+      <c r="C82">
+        <v>19632523</v>
+      </c>
+      <c r="D82" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" t="s">
+        <v>17</v>
+      </c>
+      <c r="B83">
+        <v>8389079</v>
+      </c>
+      <c r="C83">
+        <v>5483250</v>
+      </c>
+      <c r="D83" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" t="s">
+        <v>18</v>
+      </c>
+      <c r="B84">
+        <v>155386517</v>
+      </c>
+      <c r="C84">
+        <v>138578724</v>
+      </c>
+      <c r="D84" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" t="s">
+        <v>19</v>
+      </c>
+      <c r="B85">
+        <v>2072651</v>
+      </c>
+      <c r="C85">
+        <v>2021940</v>
+      </c>
+      <c r="D85" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" t="s">
+        <v>20</v>
+      </c>
+      <c r="B86">
+        <v>69991417</v>
+      </c>
+      <c r="C86">
+        <v>55000700</v>
+      </c>
+      <c r="D86" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" t="s">
+        <v>4</v>
+      </c>
+      <c r="B87">
+        <v>13283903</v>
+      </c>
+      <c r="C87">
+        <v>11459369</v>
+      </c>
+      <c r="D87" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" t="s">
+        <v>5</v>
+      </c>
+      <c r="B88">
+        <v>35762853</v>
+      </c>
+      <c r="C88">
+        <v>32082741</v>
+      </c>
+      <c r="D88" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" t="s">
+        <v>6</v>
+      </c>
+      <c r="B89">
+        <v>82716388</v>
+      </c>
+      <c r="C89">
+        <v>71813968</v>
+      </c>
+      <c r="D89" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90" t="s">
+        <v>7</v>
+      </c>
+      <c r="B90">
+        <v>548955</v>
+      </c>
+      <c r="C90">
+        <v>477628</v>
+      </c>
+      <c r="D90" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91" t="s">
+        <v>8</v>
+      </c>
+      <c r="B91">
+        <v>195749137</v>
+      </c>
+      <c r="C91">
+        <v>167555287</v>
+      </c>
+      <c r="D91" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92" t="s">
+        <v>9</v>
+      </c>
+      <c r="B92">
+        <v>28412586</v>
+      </c>
+      <c r="C92">
+        <v>24713885</v>
+      </c>
+      <c r="D92" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93" t="s">
+        <v>10</v>
+      </c>
+      <c r="B93">
+        <v>15225913</v>
+      </c>
+      <c r="C93">
+        <v>13487596</v>
+      </c>
+      <c r="D93" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94" t="s">
+        <v>11</v>
+      </c>
+      <c r="B94">
+        <v>438944</v>
+      </c>
+      <c r="C94">
+        <v>376285</v>
+      </c>
+      <c r="D94" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95" t="s">
+        <v>12</v>
+      </c>
+      <c r="B95">
+        <v>54692703</v>
+      </c>
+      <c r="C95">
+        <v>40977096</v>
+      </c>
+      <c r="D95" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96" t="s">
+        <v>13</v>
+      </c>
+      <c r="B96">
+        <v>8706047</v>
+      </c>
+      <c r="C96">
+        <v>7301269</v>
+      </c>
+      <c r="D96" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97" t="s">
+        <v>14</v>
+      </c>
+      <c r="B97">
+        <v>23674658</v>
+      </c>
+      <c r="C97">
+        <v>20460077</v>
+      </c>
+      <c r="D97" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98" t="s">
+        <v>15</v>
+      </c>
+      <c r="B98">
+        <v>50767056</v>
+      </c>
+      <c r="C98">
+        <v>47336284</v>
+      </c>
+      <c r="D98" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99" t="s">
+        <v>16</v>
+      </c>
+      <c r="B99">
+        <v>96006348</v>
+      </c>
+      <c r="C99">
+        <v>88792865</v>
+      </c>
+      <c r="D99" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100" t="s">
+        <v>17</v>
+      </c>
+      <c r="B100">
+        <v>26572280</v>
+      </c>
+      <c r="C100">
+        <v>20872170</v>
+      </c>
+      <c r="D100" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101" t="s">
+        <v>18</v>
+      </c>
+      <c r="B101">
+        <v>1370559320</v>
+      </c>
+      <c r="C101">
+        <v>1095914991</v>
+      </c>
+      <c r="D101" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="A102" t="s">
+        <v>19</v>
+      </c>
+      <c r="B102">
+        <v>13799845</v>
+      </c>
+      <c r="C102">
+        <v>13309756</v>
+      </c>
+      <c r="D102" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
+      <c r="A103" t="s">
+        <v>20</v>
+      </c>
+      <c r="B103">
+        <v>381023587</v>
+      </c>
+      <c r="C103">
+        <v>252010829</v>
+      </c>
+      <c r="D103" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
+      <c r="A104" t="s">
+        <v>4</v>
+      </c>
+      <c r="B104">
+        <v>45432179</v>
+      </c>
+      <c r="C104">
+        <v>37479692</v>
+      </c>
+      <c r="D104" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4">
+      <c r="A105" t="s">
+        <v>5</v>
+      </c>
+      <c r="B105">
+        <v>95894036</v>
+      </c>
+      <c r="C105">
+        <v>81700406</v>
+      </c>
+      <c r="D105" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
+      <c r="A106" t="s">
+        <v>6</v>
+      </c>
+      <c r="B106">
+        <v>354626620</v>
+      </c>
+      <c r="C106">
+        <v>294316835</v>
+      </c>
+      <c r="D106" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4">
+      <c r="A107" t="s">
+        <v>7</v>
+      </c>
+      <c r="B107">
+        <v>2402031</v>
+      </c>
+      <c r="C107">
+        <v>2043982</v>
+      </c>
+      <c r="D107" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
+      <c r="A108" t="s">
+        <v>8</v>
+      </c>
+      <c r="B108">
+        <v>611598263</v>
+      </c>
+      <c r="C108">
+        <v>498121871</v>
+      </c>
+      <c r="D108" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4">
+      <c r="A109" t="s">
+        <v>9</v>
+      </c>
+      <c r="B109">
+        <v>67363544</v>
+      </c>
+      <c r="C109">
+        <v>58092380</v>
+      </c>
+      <c r="D109" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4">
+      <c r="A110" t="s">
+        <v>10</v>
+      </c>
+      <c r="B110">
+        <v>51969938</v>
+      </c>
+      <c r="C110">
+        <v>44721459</v>
+      </c>
+      <c r="D110" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4">
+      <c r="A111" t="s">
+        <v>11</v>
+      </c>
+      <c r="B111">
+        <v>3352392</v>
+      </c>
+      <c r="C111">
+        <v>2997255</v>
+      </c>
+      <c r="D111" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4">
+      <c r="A112" t="s">
+        <v>12</v>
+      </c>
+      <c r="B112">
+        <v>199411707</v>
+      </c>
+      <c r="C112">
+        <v>146334998</v>
+      </c>
+      <c r="D112" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4">
+      <c r="A113" t="s">
+        <v>13</v>
+      </c>
+      <c r="B113">
+        <v>41184269</v>
+      </c>
+      <c r="C113">
+        <v>33051893</v>
+      </c>
+      <c r="D113" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4">
+      <c r="A114" t="s">
+        <v>14</v>
+      </c>
+      <c r="B114">
+        <v>82571097</v>
+      </c>
+      <c r="C114">
+        <v>71661673</v>
+      </c>
+      <c r="D114" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4">
+      <c r="A115" t="s">
+        <v>15</v>
+      </c>
+      <c r="B115">
+        <v>200737154</v>
+      </c>
+      <c r="C115">
+        <v>185167595</v>
+      </c>
+      <c r="D115" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4">
+      <c r="A116" t="s">
+        <v>16</v>
+      </c>
+      <c r="B116">
+        <v>340386901</v>
+      </c>
+      <c r="C116">
+        <v>306937972</v>
+      </c>
+      <c r="D116" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4">
+      <c r="A117" t="s">
+        <v>17</v>
+      </c>
+      <c r="B117">
+        <v>147745391</v>
+      </c>
+      <c r="C117">
+        <v>80326547</v>
+      </c>
+      <c r="D117" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4">
+      <c r="A118" t="s">
+        <v>18</v>
+      </c>
+      <c r="B118">
+        <v>3732787443</v>
+      </c>
+      <c r="C118">
+        <v>3023424208</v>
+      </c>
+      <c r="D118" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4">
+      <c r="A119" t="s">
+        <v>19</v>
+      </c>
+      <c r="B119">
+        <v>34213127</v>
+      </c>
+      <c r="C119">
+        <v>31744878</v>
+      </c>
+      <c r="D119" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4">
+      <c r="A120" t="s">
+        <v>20</v>
+      </c>
+      <c r="B120">
+        <v>1295932176</v>
+      </c>
+      <c r="C120">
+        <v>769243976</v>
+      </c>
+      <c r="D120" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4">
+      <c r="A121" t="s">
+        <v>4</v>
+      </c>
+      <c r="B121">
+        <v>35138947</v>
+      </c>
+      <c r="C121">
+        <v>27459053</v>
+      </c>
+      <c r="D121" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4">
+      <c r="A122" t="s">
+        <v>5</v>
+      </c>
+      <c r="B122">
+        <v>99419555</v>
+      </c>
+      <c r="C122">
+        <v>85207104</v>
+      </c>
+      <c r="D122" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4">
+      <c r="A123" t="s">
+        <v>6</v>
+      </c>
+      <c r="B123">
+        <v>354651047</v>
+      </c>
+      <c r="C123">
+        <v>295278508</v>
+      </c>
+      <c r="D123" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4">
+      <c r="A124" t="s">
+        <v>7</v>
+      </c>
+      <c r="B124">
+        <v>2228190</v>
+      </c>
+      <c r="C124">
+        <v>1895900</v>
+      </c>
+      <c r="D124" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4">
+      <c r="A125" t="s">
+        <v>8</v>
+      </c>
+      <c r="B125">
+        <v>477741217</v>
+      </c>
+      <c r="C125">
+        <v>378442149</v>
+      </c>
+      <c r="D125" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4">
+      <c r="A126" t="s">
+        <v>9</v>
+      </c>
+      <c r="B126">
+        <v>74860588</v>
+      </c>
+      <c r="C126">
+        <v>62771105</v>
+      </c>
+      <c r="D126" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4">
+      <c r="A127" t="s">
+        <v>10</v>
+      </c>
+      <c r="B127">
+        <v>68487087</v>
+      </c>
+      <c r="C127">
+        <v>59347728</v>
+      </c>
+      <c r="D127" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4">
+      <c r="A128" t="s">
+        <v>11</v>
+      </c>
+      <c r="B128">
+        <v>1429862</v>
+      </c>
+      <c r="C128">
+        <v>1101575</v>
+      </c>
+      <c r="D128" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4">
+      <c r="A129" t="s">
+        <v>12</v>
+      </c>
+      <c r="B129">
+        <v>201397845</v>
+      </c>
+      <c r="C129">
+        <v>148305688</v>
+      </c>
+      <c r="D129" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4">
+      <c r="A130" t="s">
+        <v>13</v>
+      </c>
+      <c r="B130">
+        <v>41190884</v>
+      </c>
+      <c r="C130">
+        <v>32532121</v>
+      </c>
+      <c r="D130" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4">
+      <c r="A131" t="s">
+        <v>14</v>
+      </c>
+      <c r="B131">
+        <v>52868687</v>
+      </c>
+      <c r="C131">
+        <v>42146185</v>
+      </c>
+      <c r="D131" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4">
+      <c r="A132" t="s">
+        <v>15</v>
+      </c>
+      <c r="B132">
+        <v>170585993</v>
+      </c>
+      <c r="C132">
+        <v>154057425</v>
+      </c>
+      <c r="D132" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4">
+      <c r="A133" t="s">
+        <v>16</v>
+      </c>
+      <c r="B133">
+        <v>337807254</v>
+      </c>
+      <c r="C133">
+        <v>298187573</v>
+      </c>
+      <c r="D133" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4">
+      <c r="A134" t="s">
+        <v>17</v>
+      </c>
+      <c r="B134">
+        <v>161109646</v>
+      </c>
+      <c r="C134">
+        <v>82235129</v>
+      </c>
+      <c r="D134" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4">
+      <c r="A135" t="s">
+        <v>18</v>
+      </c>
+      <c r="B135">
+        <v>3162486887</v>
+      </c>
+      <c r="C135">
+        <v>2501892706</v>
+      </c>
+      <c r="D135" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4">
+      <c r="A136" t="s">
+        <v>19</v>
+      </c>
+      <c r="B136">
+        <v>32924102</v>
+      </c>
+      <c r="C136">
+        <v>30188855</v>
+      </c>
+      <c r="D136" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4">
+      <c r="A137" t="s">
+        <v>20</v>
+      </c>
+      <c r="B137">
+        <v>1155623356</v>
+      </c>
+      <c r="C137">
+        <v>639514673</v>
+      </c>
+      <c r="D137" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4">
+      <c r="A138" t="s">
+        <v>4</v>
+      </c>
+      <c r="B138">
+        <v>51476412</v>
+      </c>
+      <c r="C138">
+        <v>40776161</v>
+      </c>
+      <c r="D138" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4">
+      <c r="A139" t="s">
+        <v>5</v>
+      </c>
+      <c r="B139">
+        <v>118417413</v>
+      </c>
+      <c r="C139">
+        <v>98445699</v>
+      </c>
+      <c r="D139" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4">
+      <c r="A140" t="s">
+        <v>6</v>
+      </c>
+      <c r="B140">
+        <v>360537508</v>
+      </c>
+      <c r="C140">
+        <v>283912719</v>
+      </c>
+      <c r="D140" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4">
+      <c r="A141" t="s">
+        <v>7</v>
+      </c>
+      <c r="B141">
+        <v>3418915</v>
+      </c>
+      <c r="C141">
+        <v>2921561</v>
+      </c>
+      <c r="D141" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4">
+      <c r="A142" t="s">
+        <v>8</v>
+      </c>
+      <c r="B142">
+        <v>546910602</v>
+      </c>
+      <c r="C142">
+        <v>427816533</v>
+      </c>
+      <c r="D142" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4">
+      <c r="A143" t="s">
+        <v>9</v>
+      </c>
+      <c r="B143">
+        <v>99927733</v>
+      </c>
+      <c r="C143">
+        <v>85075888</v>
+      </c>
+      <c r="D143" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4">
+      <c r="A144" t="s">
+        <v>10</v>
+      </c>
+      <c r="B144">
+        <v>92978845</v>
+      </c>
+      <c r="C144">
+        <v>80867122</v>
+      </c>
+      <c r="D144" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4">
+      <c r="A145" t="s">
+        <v>11</v>
+      </c>
+      <c r="B145">
+        <v>1936632</v>
+      </c>
+      <c r="C145">
+        <v>1494499</v>
+      </c>
+      <c r="D145" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4">
+      <c r="A146" t="s">
+        <v>12</v>
+      </c>
+      <c r="B146">
+        <v>248524993</v>
+      </c>
+      <c r="C146">
+        <v>181627000</v>
+      </c>
+      <c r="D146" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4">
+      <c r="A147" t="s">
+        <v>13</v>
+      </c>
+      <c r="B147">
+        <v>64779628</v>
+      </c>
+      <c r="C147">
+        <v>54469787</v>
+      </c>
+      <c r="D147" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4">
+      <c r="A148" t="s">
+        <v>14</v>
+      </c>
+      <c r="B148">
+        <v>78256127</v>
+      </c>
+      <c r="C148">
+        <v>63776801</v>
+      </c>
+      <c r="D148" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4">
+      <c r="A149" t="s">
+        <v>15</v>
+      </c>
+      <c r="B149">
+        <v>275890068</v>
+      </c>
+      <c r="C149">
+        <v>251717203</v>
+      </c>
+      <c r="D149" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4">
+      <c r="A150" t="s">
+        <v>16</v>
+      </c>
+      <c r="B150">
+        <v>558047304</v>
+      </c>
+      <c r="C150">
+        <v>500824542</v>
+      </c>
+      <c r="D150" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4">
+      <c r="A151" t="s">
+        <v>17</v>
+      </c>
+      <c r="B151">
+        <v>187258204</v>
+      </c>
+      <c r="C151">
+        <v>93518759</v>
+      </c>
+      <c r="D151" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4">
+      <c r="A152" t="s">
+        <v>18</v>
+      </c>
+      <c r="B152">
+        <v>3572750678</v>
+      </c>
+      <c r="C152">
+        <v>2763755004</v>
+      </c>
+      <c r="D152" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4">
+      <c r="A153" t="s">
+        <v>19</v>
+      </c>
+      <c r="B153">
+        <v>40113775</v>
+      </c>
+      <c r="C153">
+        <v>36314779</v>
+      </c>
+      <c r="D153" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4">
+      <c r="A154" t="s">
+        <v>20</v>
+      </c>
+      <c r="B154">
+        <v>1456816846</v>
+      </c>
+      <c r="C154">
+        <v>802711057</v>
+      </c>
+      <c r="D154" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4">
+      <c r="A155" t="s">
+        <v>4</v>
+      </c>
+      <c r="B155">
+        <v>64807413</v>
+      </c>
+      <c r="C155">
+        <v>51452265</v>
+      </c>
+      <c r="D155" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4">
+      <c r="A156" t="s">
+        <v>5</v>
+      </c>
+      <c r="B156">
+        <v>123410176</v>
+      </c>
+      <c r="C156">
+        <v>101316588</v>
+      </c>
+      <c r="D156" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4">
+      <c r="A157" t="s">
+        <v>6</v>
+      </c>
+      <c r="B157">
+        <v>344813159</v>
+      </c>
+      <c r="C157">
+        <v>268471470</v>
+      </c>
+      <c r="D157" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4">
+      <c r="A158" t="s">
+        <v>7</v>
+      </c>
+      <c r="B158">
+        <v>3303186</v>
+      </c>
+      <c r="C158">
+        <v>2765487</v>
+      </c>
+      <c r="D158" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4">
+      <c r="A159" t="s">
+        <v>8</v>
+      </c>
+      <c r="B159">
+        <v>718178461</v>
+      </c>
+      <c r="C159">
+        <v>581728837</v>
+      </c>
+      <c r="D159" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4">
+      <c r="A160" t="s">
+        <v>9</v>
+      </c>
+      <c r="B160">
+        <v>115826490</v>
+      </c>
+      <c r="C160">
+        <v>98804363</v>
+      </c>
+      <c r="D160" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4">
+      <c r="A161" t="s">
+        <v>10</v>
+      </c>
+      <c r="B161">
+        <v>106500176</v>
+      </c>
+      <c r="C161">
+        <v>93234519</v>
+      </c>
+      <c r="D161" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4">
+      <c r="A162" t="s">
+        <v>11</v>
+      </c>
+      <c r="B162">
+        <v>1900902</v>
+      </c>
+      <c r="C162">
+        <v>1487966</v>
+      </c>
+      <c r="D162" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4">
+      <c r="A163" t="s">
+        <v>12</v>
+      </c>
+      <c r="B163">
+        <v>256114266</v>
+      </c>
+      <c r="C163">
+        <v>186759563</v>
+      </c>
+      <c r="D163" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4">
+      <c r="A164" t="s">
+        <v>13</v>
+      </c>
+      <c r="B164">
+        <v>74070056</v>
+      </c>
+      <c r="C164">
+        <v>63183554</v>
+      </c>
+      <c r="D164" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4">
+      <c r="A165" t="s">
+        <v>14</v>
+      </c>
+      <c r="B165">
+        <v>88207225</v>
+      </c>
+      <c r="C165">
+        <v>70787058</v>
+      </c>
+      <c r="D165" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4">
+      <c r="A166" t="s">
+        <v>15</v>
+      </c>
+      <c r="B166">
+        <v>220734636</v>
+      </c>
+      <c r="C166">
+        <v>195510130</v>
+      </c>
+      <c r="D166" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4">
+      <c r="A167" t="s">
+        <v>16</v>
+      </c>
+      <c r="B167">
+        <v>448994944</v>
+      </c>
+      <c r="C167">
+        <v>397511499</v>
+      </c>
+      <c r="D167" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4">
+      <c r="A168" t="s">
+        <v>17</v>
+      </c>
+      <c r="B168">
+        <v>122560489</v>
+      </c>
+      <c r="C168">
+        <v>101123032</v>
+      </c>
+      <c r="D168" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4">
+      <c r="A169" t="s">
+        <v>18</v>
+      </c>
+      <c r="B169">
+        <v>3680783801</v>
+      </c>
+      <c r="C169">
+        <v>2791218673</v>
+      </c>
+      <c r="D169" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4">
+      <c r="A170" t="s">
+        <v>19</v>
+      </c>
+      <c r="B170">
+        <v>57888227</v>
+      </c>
+      <c r="C170">
+        <v>53988815</v>
+      </c>
+      <c r="D170" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4">
+      <c r="A171" t="s">
+        <v>20</v>
+      </c>
+      <c r="B171">
+        <v>1482248189</v>
+      </c>
+      <c r="C171">
+        <v>814100569</v>
+      </c>
+      <c r="D171" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4">
+      <c r="A172" t="s">
+        <v>4</v>
+      </c>
+      <c r="B172">
+        <v>37536518</v>
+      </c>
+      <c r="C172">
+        <v>28651435</v>
+      </c>
+      <c r="D172" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4">
+      <c r="A173" t="s">
+        <v>5</v>
+      </c>
+      <c r="B173">
+        <v>99581302</v>
+      </c>
+      <c r="C173">
+        <v>79155835</v>
+      </c>
+      <c r="D173" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4">
+      <c r="A174" t="s">
+        <v>6</v>
+      </c>
+      <c r="B174">
+        <v>343949420</v>
+      </c>
+      <c r="C174">
+        <v>256172761</v>
+      </c>
+      <c r="D174" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4">
+      <c r="A175" t="s">
+        <v>7</v>
+      </c>
+      <c r="B175">
+        <v>1013515</v>
+      </c>
+      <c r="C175">
+        <v>802626</v>
+      </c>
+      <c r="D175" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4">
+      <c r="A176" t="s">
+        <v>8</v>
+      </c>
+      <c r="B176">
+        <v>822808029</v>
+      </c>
+      <c r="C176">
+        <v>645946666</v>
+      </c>
+      <c r="D176" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4">
+      <c r="A177" t="s">
+        <v>9</v>
+      </c>
+      <c r="B177">
+        <v>79807458</v>
+      </c>
+      <c r="C177">
+        <v>63385035</v>
+      </c>
+      <c r="D177" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4">
+      <c r="A178" t="s">
+        <v>10</v>
+      </c>
+      <c r="B178">
+        <v>73013720</v>
+      </c>
+      <c r="C178">
+        <v>58790152</v>
+      </c>
+      <c r="D178" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4">
+      <c r="A179" t="s">
+        <v>11</v>
+      </c>
+      <c r="B179">
+        <v>9712902</v>
+      </c>
+      <c r="C179">
+        <v>9128667</v>
+      </c>
+      <c r="D179" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4">
+      <c r="A180" t="s">
+        <v>12</v>
+      </c>
+      <c r="B180">
+        <v>204154526</v>
+      </c>
+      <c r="C180">
+        <v>151955741</v>
+      </c>
+      <c r="D180" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4">
+      <c r="A181" t="s">
+        <v>13</v>
+      </c>
+      <c r="B181">
+        <v>35720761</v>
+      </c>
+      <c r="C181">
+        <v>28099456</v>
+      </c>
+      <c r="D181" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4">
+      <c r="A182" t="s">
+        <v>14</v>
+      </c>
+      <c r="B182">
+        <v>79892941</v>
+      </c>
+      <c r="C182">
+        <v>63117486</v>
+      </c>
+      <c r="D182" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4">
+      <c r="A183" t="s">
+        <v>15</v>
+      </c>
+      <c r="B183">
+        <v>182060582</v>
+      </c>
+      <c r="C183">
+        <v>160150637</v>
+      </c>
+      <c r="D183" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4">
+      <c r="A184" t="s">
+        <v>16</v>
+      </c>
+      <c r="B184">
+        <v>381194439</v>
+      </c>
+      <c r="C184">
+        <v>335513547</v>
+      </c>
+      <c r="D184" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4">
+      <c r="A185" t="s">
+        <v>17</v>
+      </c>
+      <c r="B185">
+        <v>129515563</v>
+      </c>
+      <c r="C185">
+        <v>116907256</v>
+      </c>
+      <c r="D185" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4">
+      <c r="A186" t="s">
+        <v>18</v>
+      </c>
+      <c r="B186">
+        <v>3973178061</v>
+      </c>
+      <c r="C186">
+        <v>2895557411</v>
+      </c>
+      <c r="D186" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4">
+      <c r="A187" t="s">
+        <v>19</v>
+      </c>
+      <c r="B187">
+        <v>68497403</v>
+      </c>
+      <c r="C187">
+        <v>64295639</v>
+      </c>
+      <c r="D187" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4">
+      <c r="A188" t="s">
+        <v>20</v>
+      </c>
+      <c r="B188">
+        <v>1278682379</v>
+      </c>
+      <c r="C188">
+        <v>682598319</v>
+      </c>
+      <c r="D188" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4">
+      <c r="A189" t="s">
+        <v>4</v>
+      </c>
+      <c r="B189">
+        <v>60171989</v>
+      </c>
+      <c r="C189">
+        <v>47626359</v>
+      </c>
+      <c r="D189" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4">
+      <c r="A190" t="s">
+        <v>5</v>
+      </c>
+      <c r="B190">
+        <v>131940550</v>
+      </c>
+      <c r="C190">
+        <v>105967374</v>
+      </c>
+      <c r="D190" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4">
+      <c r="A191" t="s">
+        <v>6</v>
+      </c>
+      <c r="B191">
+        <v>295222733</v>
+      </c>
+      <c r="C191">
+        <v>225943855</v>
+      </c>
+      <c r="D191" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4">
+      <c r="A192" t="s">
+        <v>7</v>
+      </c>
+      <c r="B192">
+        <v>2388770</v>
+      </c>
+      <c r="C192">
+        <v>1944704</v>
+      </c>
+      <c r="D192" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4">
+      <c r="A193" t="s">
+        <v>8</v>
+      </c>
+      <c r="B193">
+        <v>697385420</v>
+      </c>
+      <c r="C193">
+        <v>519203443</v>
+      </c>
+      <c r="D193" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4">
+      <c r="A194" t="s">
+        <v>9</v>
+      </c>
+      <c r="B194">
+        <v>81895025</v>
+      </c>
+      <c r="C194">
+        <v>68587179</v>
+      </c>
+      <c r="D194" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4">
+      <c r="A195" t="s">
+        <v>10</v>
+      </c>
+      <c r="B195">
+        <v>80305975</v>
+      </c>
+      <c r="C195">
+        <v>68531700</v>
+      </c>
+      <c r="D195" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4">
+      <c r="A196" t="s">
+        <v>11</v>
+      </c>
+      <c r="B196">
+        <v>3645733</v>
+      </c>
+      <c r="C196">
+        <v>3213825</v>
+      </c>
+      <c r="D196" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4">
+      <c r="A197" t="s">
+        <v>12</v>
+      </c>
+      <c r="B197">
+        <v>249882496</v>
+      </c>
+      <c r="C197">
+        <v>184578265</v>
+      </c>
+      <c r="D197" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4">
+      <c r="A198" t="s">
+        <v>13</v>
+      </c>
+      <c r="B198">
+        <v>54773923</v>
+      </c>
+      <c r="C198">
+        <v>44121593</v>
+      </c>
+      <c r="D198" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4">
+      <c r="A199" t="s">
+        <v>14</v>
+      </c>
+      <c r="B199">
+        <v>73290738</v>
+      </c>
+      <c r="C199">
+        <v>60092348</v>
+      </c>
+      <c r="D199" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4">
+      <c r="A200" t="s">
+        <v>15</v>
+      </c>
+      <c r="B200">
+        <v>242168855</v>
+      </c>
+      <c r="C200">
+        <v>215465774</v>
+      </c>
+      <c r="D200" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4">
+      <c r="A201" t="s">
+        <v>16</v>
+      </c>
+      <c r="B201">
+        <v>399855411</v>
+      </c>
+      <c r="C201">
+        <v>353539577</v>
+      </c>
+      <c r="D201" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4">
+      <c r="A202" t="s">
+        <v>17</v>
+      </c>
+      <c r="B202">
+        <v>81915530</v>
+      </c>
+      <c r="C202">
+        <v>68779552</v>
+      </c>
+      <c r="D202" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4">
+      <c r="A203" t="s">
+        <v>18</v>
+      </c>
+      <c r="B203">
+        <v>3886770836</v>
+      </c>
+      <c r="C203">
+        <v>3056328082</v>
+      </c>
+      <c r="D203" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4">
+      <c r="A204" t="s">
+        <v>19</v>
+      </c>
+      <c r="B204">
+        <v>43628699</v>
+      </c>
+      <c r="C204">
+        <v>39235688</v>
+      </c>
+      <c r="D204" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4">
+      <c r="A205" t="s">
+        <v>20</v>
+      </c>
+      <c r="B205">
+        <v>1478013311</v>
+      </c>
+      <c r="C205">
+        <v>829019933</v>
+      </c>
+      <c r="D205" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4">
+      <c r="A206" t="s">
+        <v>4</v>
+      </c>
+      <c r="B206">
+        <v>58138272</v>
+      </c>
+      <c r="C206">
+        <v>45535108</v>
+      </c>
+      <c r="D206" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4">
+      <c r="A207" t="s">
+        <v>5</v>
+      </c>
+      <c r="B207">
+        <v>159732218</v>
+      </c>
+      <c r="C207">
+        <v>134202328</v>
+      </c>
+      <c r="D207" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4">
+      <c r="A208" t="s">
+        <v>6</v>
+      </c>
+      <c r="B208">
+        <v>262730397</v>
+      </c>
+      <c r="C208">
+        <v>204837945</v>
+      </c>
+      <c r="D208" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4">
+      <c r="A209" t="s">
+        <v>7</v>
+      </c>
+      <c r="B209">
+        <v>4539762</v>
+      </c>
+      <c r="C209">
+        <v>4023489</v>
+      </c>
+      <c r="D209" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4">
+      <c r="A210" t="s">
+        <v>8</v>
+      </c>
+      <c r="B210">
+        <v>641265330</v>
+      </c>
+      <c r="C210">
+        <v>480126596</v>
+      </c>
+      <c r="D210" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4">
+      <c r="A211" t="s">
+        <v>9</v>
+      </c>
+      <c r="B211">
+        <v>99158185</v>
+      </c>
+      <c r="C211">
+        <v>83924582</v>
+      </c>
+      <c r="D211" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4">
+      <c r="A212" t="s">
+        <v>10</v>
+      </c>
+      <c r="B212">
+        <v>87080609</v>
+      </c>
+      <c r="C212">
+        <v>75565602</v>
+      </c>
+      <c r="D212" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4">
+      <c r="A213" t="s">
+        <v>11</v>
+      </c>
+      <c r="B213">
+        <v>2082787</v>
+      </c>
+      <c r="C213">
+        <v>1668902</v>
+      </c>
+      <c r="D213" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4">
+      <c r="A214" t="s">
+        <v>12</v>
+      </c>
+      <c r="B214">
+        <v>255340631</v>
+      </c>
+      <c r="C214">
+        <v>189077219</v>
+      </c>
+      <c r="D214" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4">
+      <c r="A215" t="s">
+        <v>13</v>
+      </c>
+      <c r="B215">
+        <v>56526520</v>
+      </c>
+      <c r="C215">
+        <v>45886829</v>
+      </c>
+      <c r="D215" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4">
+      <c r="A216" t="s">
+        <v>14</v>
+      </c>
+      <c r="B216">
+        <v>75205950</v>
+      </c>
+      <c r="C216">
+        <v>61407471</v>
+      </c>
+      <c r="D216" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4">
+      <c r="A217" t="s">
+        <v>15</v>
+      </c>
+      <c r="B217">
+        <v>135174661</v>
+      </c>
+      <c r="C217">
+        <v>115366700</v>
+      </c>
+      <c r="D217" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4">
+      <c r="A218" t="s">
+        <v>16</v>
+      </c>
+      <c r="B218">
+        <v>401025122</v>
+      </c>
+      <c r="C218">
+        <v>344683239</v>
+      </c>
+      <c r="D218" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4">
+      <c r="A219" t="s">
+        <v>17</v>
+      </c>
+      <c r="B219">
+        <v>65842242</v>
+      </c>
+      <c r="C219">
+        <v>52660216</v>
+      </c>
+      <c r="D219" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4">
+      <c r="A220" t="s">
+        <v>18</v>
+      </c>
+      <c r="B220">
+        <v>3712209324</v>
+      </c>
+      <c r="C220">
+        <v>2926884253</v>
+      </c>
+      <c r="D220" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4">
+      <c r="A221" t="s">
+        <v>19</v>
+      </c>
+      <c r="B221">
+        <v>35631245</v>
+      </c>
+      <c r="C221">
+        <v>32403378</v>
+      </c>
+      <c r="D221" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4">
+      <c r="A222" t="s">
+        <v>20</v>
+      </c>
+      <c r="B222">
+        <v>1500969922</v>
+      </c>
+      <c r="C222">
+        <v>844245355</v>
+      </c>
+      <c r="D222" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4">
+      <c r="A223" t="s">
+        <v>4</v>
+      </c>
+      <c r="B223">
+        <v>59875400</v>
+      </c>
+      <c r="C223">
+        <v>47926806</v>
+      </c>
+      <c r="D223" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4">
+      <c r="A224" t="s">
+        <v>5</v>
+      </c>
+      <c r="B224">
+        <v>155909391</v>
+      </c>
+      <c r="C224">
+        <v>132447726</v>
+      </c>
+      <c r="D224" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4">
+      <c r="A225" t="s">
+        <v>6</v>
+      </c>
+      <c r="B225">
+        <v>242249525</v>
+      </c>
+      <c r="C225">
+        <v>186609358</v>
+      </c>
+      <c r="D225" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4">
+      <c r="A226" t="s">
+        <v>7</v>
+      </c>
+      <c r="B226">
+        <v>3386478</v>
+      </c>
+      <c r="C226">
+        <v>2813219</v>
+      </c>
+      <c r="D226" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4">
+      <c r="A227" t="s">
+        <v>8</v>
+      </c>
+      <c r="B227">
+        <v>568667841</v>
+      </c>
+      <c r="C227">
+        <v>434190712</v>
+      </c>
+      <c r="D227" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4">
+      <c r="A228" t="s">
+        <v>9</v>
+      </c>
+      <c r="B228">
+        <v>170108530</v>
+      </c>
+      <c r="C228">
+        <v>146004747</v>
+      </c>
+      <c r="D228" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4">
+      <c r="A229" t="s">
+        <v>10</v>
+      </c>
+      <c r="B229">
+        <v>102859645</v>
+      </c>
+      <c r="C229">
+        <v>89733359</v>
+      </c>
+      <c r="D229" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4">
+      <c r="A230" t="s">
+        <v>11</v>
+      </c>
+      <c r="B230">
+        <v>1750017</v>
+      </c>
+      <c r="C230">
+        <v>1345344</v>
+      </c>
+      <c r="D230" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4">
+      <c r="A231" t="s">
+        <v>12</v>
+      </c>
+      <c r="B231">
+        <v>272666334</v>
+      </c>
+      <c r="C231">
+        <v>202243945</v>
+      </c>
+      <c r="D231" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4">
+      <c r="A232" t="s">
+        <v>13</v>
+      </c>
+      <c r="B232">
+        <v>55298963</v>
+      </c>
+      <c r="C232">
+        <v>45400359</v>
+      </c>
+      <c r="D232" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4">
+      <c r="A233" t="s">
+        <v>14</v>
+      </c>
+      <c r="B233">
+        <v>65253792</v>
+      </c>
+      <c r="C233">
+        <v>52634113</v>
+      </c>
+      <c r="D233" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4">
+      <c r="A234" t="s">
+        <v>15</v>
+      </c>
+      <c r="B234">
+        <v>163820160</v>
+      </c>
+      <c r="C234">
+        <v>135714862</v>
+      </c>
+      <c r="D234" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4">
+      <c r="A235" t="s">
+        <v>16</v>
+      </c>
+      <c r="B235">
+        <v>446468270</v>
+      </c>
+      <c r="C235">
+        <v>397611132</v>
+      </c>
+      <c r="D235" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4">
+      <c r="A236" t="s">
+        <v>17</v>
+      </c>
+      <c r="B236">
+        <v>66229340</v>
+      </c>
+      <c r="C236">
+        <v>52040959</v>
+      </c>
+      <c r="D236" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4">
+      <c r="A237" t="s">
+        <v>18</v>
+      </c>
+      <c r="B237">
+        <v>3629755216</v>
+      </c>
+      <c r="C237">
+        <v>2823752949</v>
+      </c>
+      <c r="D237" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4">
+      <c r="A238" t="s">
+        <v>19</v>
+      </c>
+      <c r="B238">
+        <v>53652869</v>
+      </c>
+      <c r="C238">
+        <v>50112174</v>
+      </c>
+      <c r="D238" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4">
+      <c r="A239" t="s">
+        <v>20</v>
+      </c>
+      <c r="B239">
+        <v>1524775332</v>
+      </c>
+      <c r="C239">
+        <v>835159095</v>
+      </c>
+      <c r="D239" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/自动化分析报告/result_excel/result_2_3/baseline_2_3_week.xlsx
+++ b/自动化分析报告/result_excel/result_2_3/baseline_2_3_week.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1710" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2254" uniqueCount="92">
   <si>
     <t>二级分类含义</t>
   </si>
@@ -242,6 +242,54 @@
   </si>
   <si>
     <t>2020-06-20</t>
+  </si>
+  <si>
+    <t>2020-06-26</t>
+  </si>
+  <si>
+    <t>2020-07-02</t>
+  </si>
+  <si>
+    <t>2020-07-08</t>
+  </si>
+  <si>
+    <t>2020-07-14</t>
+  </si>
+  <si>
+    <t>2020-07-20</t>
+  </si>
+  <si>
+    <t>2020-07-26</t>
+  </si>
+  <si>
+    <t>2020-08-01</t>
+  </si>
+  <si>
+    <t>2020-08-07</t>
+  </si>
+  <si>
+    <t>2020-08-13</t>
+  </si>
+  <si>
+    <t>2020-08-19</t>
+  </si>
+  <si>
+    <t>2020-08-25</t>
+  </si>
+  <si>
+    <t>2020-08-31</t>
+  </si>
+  <si>
+    <t>2020-09-06</t>
+  </si>
+  <si>
+    <t>2020-09-12</t>
+  </si>
+  <si>
+    <t>2020-09-18</t>
+  </si>
+  <si>
+    <t>2020-09-24</t>
   </si>
 </sst>
 </file>
@@ -599,7 +647,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J851"/>
+  <dimension ref="A1:J1123"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -17841,6 +17889,5446 @@
         <v>75</v>
       </c>
     </row>
+    <row r="852" spans="1:10">
+      <c r="A852" t="s">
+        <v>10</v>
+      </c>
+      <c r="B852">
+        <v>101778794</v>
+      </c>
+      <c r="C852">
+        <v>0.009880033912766916</v>
+      </c>
+      <c r="D852">
+        <v>79094412</v>
+      </c>
+      <c r="E852">
+        <v>0.01070434919798921</v>
+      </c>
+      <c r="J852" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="853" spans="1:10">
+      <c r="A853" t="s">
+        <v>11</v>
+      </c>
+      <c r="B853">
+        <v>189500384</v>
+      </c>
+      <c r="C853">
+        <v>0.01839548443069932</v>
+      </c>
+      <c r="D853">
+        <v>156498623</v>
+      </c>
+      <c r="E853">
+        <v>0.02117995275818556</v>
+      </c>
+      <c r="J853" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="854" spans="1:10">
+      <c r="A854" t="s">
+        <v>12</v>
+      </c>
+      <c r="B854">
+        <v>379838518</v>
+      </c>
+      <c r="C854">
+        <v>0.03687229226959721</v>
+      </c>
+      <c r="D854">
+        <v>320340766</v>
+      </c>
+      <c r="E854">
+        <v>0.04335375072534008</v>
+      </c>
+      <c r="J854" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="855" spans="1:10">
+      <c r="A855" t="s">
+        <v>13</v>
+      </c>
+      <c r="B855">
+        <v>9876620</v>
+      </c>
+      <c r="C855">
+        <v>0.0009587590568572857</v>
+      </c>
+      <c r="D855">
+        <v>9111183</v>
+      </c>
+      <c r="E855">
+        <v>0.001233074271274472</v>
+      </c>
+      <c r="J855" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="856" spans="1:10">
+      <c r="A856" t="s">
+        <v>14</v>
+      </c>
+      <c r="B856">
+        <v>214671235</v>
+      </c>
+      <c r="C856">
+        <v>0.02083890954628089</v>
+      </c>
+      <c r="D856">
+        <v>168562756</v>
+      </c>
+      <c r="E856">
+        <v>0.02281266851063322</v>
+      </c>
+      <c r="J856" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="857" spans="1:10">
+      <c r="A857" t="s">
+        <v>15</v>
+      </c>
+      <c r="B857">
+        <v>246438435</v>
+      </c>
+      <c r="C857">
+        <v>0.02392266600456285</v>
+      </c>
+      <c r="D857">
+        <v>215357651</v>
+      </c>
+      <c r="E857">
+        <v>0.02914571890063092</v>
+      </c>
+      <c r="J857" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="858" spans="1:10">
+      <c r="A858" t="s">
+        <v>16</v>
+      </c>
+      <c r="B858">
+        <v>133541361</v>
+      </c>
+      <c r="C858">
+        <v>0.01296334062906119</v>
+      </c>
+      <c r="D858">
+        <v>116165231</v>
+      </c>
+      <c r="E858">
+        <v>0.0157213786138151</v>
+      </c>
+      <c r="J858" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="859" spans="1:10">
+      <c r="A859" t="s">
+        <v>17</v>
+      </c>
+      <c r="B859">
+        <v>1742362</v>
+      </c>
+      <c r="C859">
+        <v>0.0001691373514242701</v>
+      </c>
+      <c r="D859">
+        <v>1447633</v>
+      </c>
+      <c r="E859">
+        <v>0.0001959173695169857</v>
+      </c>
+      <c r="J859" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="860" spans="1:10">
+      <c r="A860" t="s">
+        <v>18</v>
+      </c>
+      <c r="B860">
+        <v>657413014</v>
+      </c>
+      <c r="C860">
+        <v>0.06381744779776337</v>
+      </c>
+      <c r="D860">
+        <v>493957133</v>
+      </c>
+      <c r="E860">
+        <v>0.06685035651405559</v>
+      </c>
+      <c r="J860" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="861" spans="1:10">
+      <c r="A861" t="s">
+        <v>19</v>
+      </c>
+      <c r="B861">
+        <v>50250101</v>
+      </c>
+      <c r="C861">
+        <v>0.004877958192351569</v>
+      </c>
+      <c r="D861">
+        <v>42256053</v>
+      </c>
+      <c r="E861">
+        <v>0.005718780070591325</v>
+      </c>
+      <c r="J861" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="862" spans="1:10">
+      <c r="A862" t="s">
+        <v>20</v>
+      </c>
+      <c r="B862">
+        <v>23406662</v>
+      </c>
+      <c r="C862">
+        <v>0.00227216893869535</v>
+      </c>
+      <c r="D862">
+        <v>18071974</v>
+      </c>
+      <c r="E862">
+        <v>0.002445795037871724</v>
+      </c>
+      <c r="J862" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="863" spans="1:10">
+      <c r="A863" t="s">
+        <v>21</v>
+      </c>
+      <c r="B863">
+        <v>59050762</v>
+      </c>
+      <c r="C863">
+        <v>0.005732270035885156</v>
+      </c>
+      <c r="D863">
+        <v>46623578</v>
+      </c>
+      <c r="E863">
+        <v>0.006309864972151094</v>
+      </c>
+      <c r="J863" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="864" spans="1:10">
+      <c r="A864" t="s">
+        <v>22</v>
+      </c>
+      <c r="B864">
+        <v>506439735</v>
+      </c>
+      <c r="C864">
+        <v>0.04916192813772867</v>
+      </c>
+      <c r="D864">
+        <v>451099384</v>
+      </c>
+      <c r="E864">
+        <v>0.06105014510170231</v>
+      </c>
+      <c r="J864" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="865" spans="1:10">
+      <c r="A865" t="s">
+        <v>23</v>
+      </c>
+      <c r="B865">
+        <v>97134771</v>
+      </c>
+      <c r="C865">
+        <v>0.009429221882790715</v>
+      </c>
+      <c r="D865">
+        <v>88055045</v>
+      </c>
+      <c r="E865">
+        <v>0.01191704858144281</v>
+      </c>
+      <c r="J865" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="866" spans="1:10">
+      <c r="A866" t="s">
+        <v>24</v>
+      </c>
+      <c r="B866">
+        <v>5595215174</v>
+      </c>
+      <c r="C866">
+        <v>0.5431476783695043</v>
+      </c>
+      <c r="D866">
+        <v>3948729036</v>
+      </c>
+      <c r="E866">
+        <v>0.5344065834838406</v>
+      </c>
+      <c r="J866" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="867" spans="1:10">
+      <c r="A867" t="s">
+        <v>25</v>
+      </c>
+      <c r="B867">
+        <v>111576160</v>
+      </c>
+      <c r="C867">
+        <v>0.01083109949854886</v>
+      </c>
+      <c r="D867">
+        <v>99658977</v>
+      </c>
+      <c r="E867">
+        <v>0.01348748240928038</v>
+      </c>
+      <c r="J867" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="868" spans="1:10">
+      <c r="A868" t="s">
+        <v>26</v>
+      </c>
+      <c r="B868">
+        <v>1923587921</v>
+      </c>
+      <c r="C868">
+        <v>0.1867296039454821</v>
+      </c>
+      <c r="D868">
+        <v>1133968302</v>
+      </c>
+      <c r="E868">
+        <v>0.1534671334816786</v>
+      </c>
+      <c r="J868" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="869" spans="1:10">
+      <c r="A869" t="s">
+        <v>10</v>
+      </c>
+      <c r="B869">
+        <v>74204702</v>
+      </c>
+      <c r="C869">
+        <v>0.007046438517657191</v>
+      </c>
+      <c r="D869">
+        <v>58865908</v>
+      </c>
+      <c r="E869">
+        <v>0.007762302511248154</v>
+      </c>
+      <c r="J869" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="870" spans="1:10">
+      <c r="A870" t="s">
+        <v>11</v>
+      </c>
+      <c r="B870">
+        <v>265586283</v>
+      </c>
+      <c r="C870">
+        <v>0.02521993032587885</v>
+      </c>
+      <c r="D870">
+        <v>229602685</v>
+      </c>
+      <c r="E870">
+        <v>0.03027636129157846</v>
+      </c>
+      <c r="J870" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="871" spans="1:10">
+      <c r="A871" t="s">
+        <v>12</v>
+      </c>
+      <c r="B871">
+        <v>348759637</v>
+      </c>
+      <c r="C871">
+        <v>0.03311802720481163</v>
+      </c>
+      <c r="D871">
+        <v>291142679</v>
+      </c>
+      <c r="E871">
+        <v>0.03839127986156631</v>
+      </c>
+      <c r="J871" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="872" spans="1:10">
+      <c r="A872" t="s">
+        <v>13</v>
+      </c>
+      <c r="B872">
+        <v>7165447</v>
+      </c>
+      <c r="C872">
+        <v>0.0006804269861097369</v>
+      </c>
+      <c r="D872">
+        <v>6317110</v>
+      </c>
+      <c r="E872">
+        <v>0.0008330002964845259</v>
+      </c>
+      <c r="J872" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="873" spans="1:10">
+      <c r="A873" t="s">
+        <v>14</v>
+      </c>
+      <c r="B873">
+        <v>233420217</v>
+      </c>
+      <c r="C873">
+        <v>0.02216545803079567</v>
+      </c>
+      <c r="D873">
+        <v>185192089</v>
+      </c>
+      <c r="E873">
+        <v>0.02442019610923171</v>
+      </c>
+      <c r="J873" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="874" spans="1:10">
+      <c r="A874" t="s">
+        <v>15</v>
+      </c>
+      <c r="B874">
+        <v>206019610</v>
+      </c>
+      <c r="C874">
+        <v>0.01956351115454534</v>
+      </c>
+      <c r="D874">
+        <v>179893054</v>
+      </c>
+      <c r="E874">
+        <v>0.02372144340014767</v>
+      </c>
+      <c r="J874" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="875" spans="1:10">
+      <c r="A875" t="s">
+        <v>16</v>
+      </c>
+      <c r="B875">
+        <v>147095863</v>
+      </c>
+      <c r="C875">
+        <v>0.01396814388973929</v>
+      </c>
+      <c r="D875">
+        <v>128792225</v>
+      </c>
+      <c r="E875">
+        <v>0.01698307637668202</v>
+      </c>
+      <c r="J875" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="876" spans="1:10">
+      <c r="A876" t="s">
+        <v>17</v>
+      </c>
+      <c r="B876">
+        <v>1561096</v>
+      </c>
+      <c r="C876">
+        <v>0.000148240834983214</v>
+      </c>
+      <c r="D876">
+        <v>1259521</v>
+      </c>
+      <c r="E876">
+        <v>0.0001660856572750018</v>
+      </c>
+      <c r="J876" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="877" spans="1:10">
+      <c r="A877" t="s">
+        <v>18</v>
+      </c>
+      <c r="B877">
+        <v>666709068</v>
+      </c>
+      <c r="C877">
+        <v>0.06331033384955212</v>
+      </c>
+      <c r="D877">
+        <v>497880576</v>
+      </c>
+      <c r="E877">
+        <v>0.06565259547829412</v>
+      </c>
+      <c r="J877" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="878" spans="1:10">
+      <c r="A878" t="s">
+        <v>19</v>
+      </c>
+      <c r="B878">
+        <v>41317696</v>
+      </c>
+      <c r="C878">
+        <v>0.00392350614864339</v>
+      </c>
+      <c r="D878">
+        <v>33956903</v>
+      </c>
+      <c r="E878">
+        <v>0.00447769791355482</v>
+      </c>
+      <c r="J878" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="879" spans="1:10">
+      <c r="A879" t="s">
+        <v>20</v>
+      </c>
+      <c r="B879">
+        <v>27188882</v>
+      </c>
+      <c r="C879">
+        <v>0.00258184158433567</v>
+      </c>
+      <c r="D879">
+        <v>21510463</v>
+      </c>
+      <c r="E879">
+        <v>0.002836458769361215</v>
+      </c>
+      <c r="J879" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="880" spans="1:10">
+      <c r="A880" t="s">
+        <v>21</v>
+      </c>
+      <c r="B880">
+        <v>63014273</v>
+      </c>
+      <c r="C880">
+        <v>0.005983801409637971</v>
+      </c>
+      <c r="D880">
+        <v>48832236</v>
+      </c>
+      <c r="E880">
+        <v>0.006439220951669726</v>
+      </c>
+      <c r="J880" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="881" spans="1:10">
+      <c r="A881" t="s">
+        <v>22</v>
+      </c>
+      <c r="B881">
+        <v>512936622</v>
+      </c>
+      <c r="C881">
+        <v>0.04870818523572491</v>
+      </c>
+      <c r="D881">
+        <v>459217183</v>
+      </c>
+      <c r="E881">
+        <v>0.06055428029427837</v>
+      </c>
+      <c r="J881" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="882" spans="1:10">
+      <c r="A882" t="s">
+        <v>23</v>
+      </c>
+      <c r="B882">
+        <v>79820342</v>
+      </c>
+      <c r="C882">
+        <v>0.007579696666140779</v>
+      </c>
+      <c r="D882">
+        <v>70916360</v>
+      </c>
+      <c r="E882">
+        <v>0.009351325037177345</v>
+      </c>
+      <c r="J882" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="883" spans="1:10">
+      <c r="A883" t="s">
+        <v>24</v>
+      </c>
+      <c r="B883">
+        <v>6008916574</v>
+      </c>
+      <c r="C883">
+        <v>0.570603480038533</v>
+      </c>
+      <c r="D883">
+        <v>4295936694</v>
+      </c>
+      <c r="E883">
+        <v>0.5664800106030692</v>
+      </c>
+      <c r="J883" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="884" spans="1:10">
+      <c r="A884" t="s">
+        <v>25</v>
+      </c>
+      <c r="B884">
+        <v>74416734</v>
+      </c>
+      <c r="C884">
+        <v>0.007066572962126437</v>
+      </c>
+      <c r="D884">
+        <v>61974402</v>
+      </c>
+      <c r="E884">
+        <v>0.008172201408626919</v>
+      </c>
+      <c r="J884" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="885" spans="1:10">
+      <c r="A885" t="s">
+        <v>26</v>
+      </c>
+      <c r="B885">
+        <v>1772676499</v>
+      </c>
+      <c r="C885">
+        <v>0.1683324051607848</v>
+      </c>
+      <c r="D885">
+        <v>1012272639</v>
+      </c>
+      <c r="E885">
+        <v>0.1334824640397545</v>
+      </c>
+      <c r="J885" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="886" spans="1:10">
+      <c r="A886" t="s">
+        <v>10</v>
+      </c>
+      <c r="B886">
+        <v>70877920</v>
+      </c>
+      <c r="C886">
+        <v>0.00698031598679927</v>
+      </c>
+      <c r="D886">
+        <v>56189417</v>
+      </c>
+      <c r="E886">
+        <v>0.007562565136456143</v>
+      </c>
+      <c r="J886" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="887" spans="1:10">
+      <c r="A887" t="s">
+        <v>11</v>
+      </c>
+      <c r="B887">
+        <v>301406461</v>
+      </c>
+      <c r="C887">
+        <v>0.02968360722553499</v>
+      </c>
+      <c r="D887">
+        <v>263454090</v>
+      </c>
+      <c r="E887">
+        <v>0.03545843367783615</v>
+      </c>
+      <c r="J887" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="888" spans="1:10">
+      <c r="A888" t="s">
+        <v>12</v>
+      </c>
+      <c r="B888">
+        <v>348151265</v>
+      </c>
+      <c r="C888">
+        <v>0.03428720595784822</v>
+      </c>
+      <c r="D888">
+        <v>287976506</v>
+      </c>
+      <c r="E888">
+        <v>0.03875891939569426</v>
+      </c>
+      <c r="J888" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="889" spans="1:10">
+      <c r="A889" t="s">
+        <v>13</v>
+      </c>
+      <c r="B889">
+        <v>7026255</v>
+      </c>
+      <c r="C889">
+        <v>0.0006919712105522891</v>
+      </c>
+      <c r="D889">
+        <v>6021966</v>
+      </c>
+      <c r="E889">
+        <v>0.0008104997801369651</v>
+      </c>
+      <c r="J889" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="890" spans="1:10">
+      <c r="A890" t="s">
+        <v>14</v>
+      </c>
+      <c r="B890">
+        <v>222306914</v>
+      </c>
+      <c r="C890">
+        <v>0.02189359543522455</v>
+      </c>
+      <c r="D890">
+        <v>174477667</v>
+      </c>
+      <c r="E890">
+        <v>0.02348304702190458</v>
+      </c>
+      <c r="J890" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="891" spans="1:10">
+      <c r="A891" t="s">
+        <v>15</v>
+      </c>
+      <c r="B891">
+        <v>230128438</v>
+      </c>
+      <c r="C891">
+        <v>0.02266388763649589</v>
+      </c>
+      <c r="D891">
+        <v>197150447</v>
+      </c>
+      <c r="E891">
+        <v>0.02653458919352989</v>
+      </c>
+      <c r="J891" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="892" spans="1:10">
+      <c r="A892" t="s">
+        <v>16</v>
+      </c>
+      <c r="B892">
+        <v>200212435</v>
+      </c>
+      <c r="C892">
+        <v>0.01971765058549277</v>
+      </c>
+      <c r="D892">
+        <v>178307656</v>
+      </c>
+      <c r="E892">
+        <v>0.02399852738868629</v>
+      </c>
+      <c r="J892" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="893" spans="1:10">
+      <c r="A893" t="s">
+        <v>17</v>
+      </c>
+      <c r="B893">
+        <v>1655036</v>
+      </c>
+      <c r="C893">
+        <v>0.0001629939796417321</v>
+      </c>
+      <c r="D893">
+        <v>1390875</v>
+      </c>
+      <c r="E893">
+        <v>0.0001871986460398483</v>
+      </c>
+      <c r="J893" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="894" spans="1:10">
+      <c r="A894" t="s">
+        <v>18</v>
+      </c>
+      <c r="B894">
+        <v>684433192</v>
+      </c>
+      <c r="C894">
+        <v>0.06740547623312951</v>
+      </c>
+      <c r="D894">
+        <v>509487447</v>
+      </c>
+      <c r="E894">
+        <v>0.06857220113432119</v>
+      </c>
+      <c r="J894" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="895" spans="1:10">
+      <c r="A895" t="s">
+        <v>19</v>
+      </c>
+      <c r="B895">
+        <v>44889736</v>
+      </c>
+      <c r="C895">
+        <v>0.004420904871982681</v>
+      </c>
+      <c r="D895">
+        <v>37589082</v>
+      </c>
+      <c r="E895">
+        <v>0.005059135620584765</v>
+      </c>
+      <c r="J895" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="896" spans="1:10">
+      <c r="A896" t="s">
+        <v>20</v>
+      </c>
+      <c r="B896">
+        <v>28100733</v>
+      </c>
+      <c r="C896">
+        <v>0.002767462642818494</v>
+      </c>
+      <c r="D896">
+        <v>21545676</v>
+      </c>
+      <c r="E896">
+        <v>0.002899844612357872</v>
+      </c>
+      <c r="J896" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="897" spans="1:10">
+      <c r="A897" t="s">
+        <v>21</v>
+      </c>
+      <c r="B897">
+        <v>69181561</v>
+      </c>
+      <c r="C897">
+        <v>0.006813252367451371</v>
+      </c>
+      <c r="D897">
+        <v>53878771</v>
+      </c>
+      <c r="E897">
+        <v>0.007251573995859474</v>
+      </c>
+      <c r="J897" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="898" spans="1:10">
+      <c r="A898" t="s">
+        <v>22</v>
+      </c>
+      <c r="B898">
+        <v>584979566</v>
+      </c>
+      <c r="C898">
+        <v>0.05761092053069135</v>
+      </c>
+      <c r="D898">
+        <v>516402929</v>
+      </c>
+      <c r="E898">
+        <v>0.0695029597338452</v>
+      </c>
+      <c r="J898" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="899" spans="1:10">
+      <c r="A899" t="s">
+        <v>23</v>
+      </c>
+      <c r="B899">
+        <v>86425806</v>
+      </c>
+      <c r="C899">
+        <v>0.008511528488615527</v>
+      </c>
+      <c r="D899">
+        <v>77004013</v>
+      </c>
+      <c r="E899">
+        <v>0.01036401328173623</v>
+      </c>
+      <c r="J899" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="900" spans="1:10">
+      <c r="A900" t="s">
+        <v>24</v>
+      </c>
+      <c r="B900">
+        <v>5453606465</v>
+      </c>
+      <c r="C900">
+        <v>0.5370910488534562</v>
+      </c>
+      <c r="D900">
+        <v>3976964058</v>
+      </c>
+      <c r="E900">
+        <v>0.5352618222390516</v>
+      </c>
+      <c r="J900" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="901" spans="1:10">
+      <c r="A901" t="s">
+        <v>25</v>
+      </c>
+      <c r="B901">
+        <v>88361382</v>
+      </c>
+      <c r="C901">
+        <v>0.008702151070323131</v>
+      </c>
+      <c r="D901">
+        <v>74442676</v>
+      </c>
+      <c r="E901">
+        <v>0.01001928149890041</v>
+      </c>
+      <c r="J901" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="902" spans="1:10">
+      <c r="A902" t="s">
+        <v>26</v>
+      </c>
+      <c r="B902">
+        <v>1732226961</v>
+      </c>
+      <c r="C902">
+        <v>0.1705960269239421</v>
+      </c>
+      <c r="D902">
+        <v>997658283</v>
+      </c>
+      <c r="E902">
+        <v>0.1342753876430591</v>
+      </c>
+      <c r="J902" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="903" spans="1:10">
+      <c r="A903" t="s">
+        <v>10</v>
+      </c>
+      <c r="B903">
+        <v>78391508</v>
+      </c>
+      <c r="C903">
+        <v>0.0074646221344348</v>
+      </c>
+      <c r="D903">
+        <v>63551485</v>
+      </c>
+      <c r="E903">
+        <v>0.008502058208755018</v>
+      </c>
+      <c r="J903" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="904" spans="1:10">
+      <c r="A904" t="s">
+        <v>11</v>
+      </c>
+      <c r="B904">
+        <v>248066996</v>
+      </c>
+      <c r="C904">
+        <v>0.02362151764148164</v>
+      </c>
+      <c r="D904">
+        <v>212011369</v>
+      </c>
+      <c r="E904">
+        <v>0.02836334981245268</v>
+      </c>
+      <c r="J904" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="905" spans="1:10">
+      <c r="A905" t="s">
+        <v>12</v>
+      </c>
+      <c r="B905">
+        <v>354853374</v>
+      </c>
+      <c r="C905">
+        <v>0.03378996549013026</v>
+      </c>
+      <c r="D905">
+        <v>289514997</v>
+      </c>
+      <c r="E905">
+        <v>0.03873195656720743</v>
+      </c>
+      <c r="J905" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="906" spans="1:10">
+      <c r="A906" t="s">
+        <v>13</v>
+      </c>
+      <c r="B906">
+        <v>7826806</v>
+      </c>
+      <c r="C906">
+        <v>0.0007452867128098505</v>
+      </c>
+      <c r="D906">
+        <v>6804324</v>
+      </c>
+      <c r="E906">
+        <v>0.000910297512626633</v>
+      </c>
+      <c r="J906" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="907" spans="1:10">
+      <c r="A907" t="s">
+        <v>14</v>
+      </c>
+      <c r="B907">
+        <v>220329596</v>
+      </c>
+      <c r="C907">
+        <v>0.02098029775333161</v>
+      </c>
+      <c r="D907">
+        <v>175253845</v>
+      </c>
+      <c r="E907">
+        <v>0.02344584696168987</v>
+      </c>
+      <c r="J907" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="908" spans="1:10">
+      <c r="A908" t="s">
+        <v>15</v>
+      </c>
+      <c r="B908">
+        <v>198429345</v>
+      </c>
+      <c r="C908">
+        <v>0.01889490480025463</v>
+      </c>
+      <c r="D908">
+        <v>170033160</v>
+      </c>
+      <c r="E908">
+        <v>0.02274741217673443</v>
+      </c>
+      <c r="J908" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="909" spans="1:10">
+      <c r="A909" t="s">
+        <v>16</v>
+      </c>
+      <c r="B909">
+        <v>205463622</v>
+      </c>
+      <c r="C909">
+        <v>0.01956472505417736</v>
+      </c>
+      <c r="D909">
+        <v>184519371</v>
+      </c>
+      <c r="E909">
+        <v>0.02468540952087685</v>
+      </c>
+      <c r="J909" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="910" spans="1:10">
+      <c r="A910" t="s">
+        <v>17</v>
+      </c>
+      <c r="B910">
+        <v>2420312</v>
+      </c>
+      <c r="C910">
+        <v>0.0002304677507599185</v>
+      </c>
+      <c r="D910">
+        <v>2124590</v>
+      </c>
+      <c r="E910">
+        <v>0.0002842323487757811</v>
+      </c>
+      <c r="J910" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="911" spans="1:10">
+      <c r="A911" t="s">
+        <v>18</v>
+      </c>
+      <c r="B911">
+        <v>686765329</v>
+      </c>
+      <c r="C911">
+        <v>0.06539539558310063</v>
+      </c>
+      <c r="D911">
+        <v>517437144</v>
+      </c>
+      <c r="E911">
+        <v>0.06922388544752263</v>
+      </c>
+      <c r="J911" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="912" spans="1:10">
+      <c r="A912" t="s">
+        <v>19</v>
+      </c>
+      <c r="B912">
+        <v>49080114</v>
+      </c>
+      <c r="C912">
+        <v>0.004673522868382418</v>
+      </c>
+      <c r="D912">
+        <v>41366379</v>
+      </c>
+      <c r="E912">
+        <v>0.005534085665243246</v>
+      </c>
+      <c r="J912" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="913" spans="1:10">
+      <c r="A913" t="s">
+        <v>20</v>
+      </c>
+      <c r="B913">
+        <v>28636950</v>
+      </c>
+      <c r="C913">
+        <v>0.002726877136139576</v>
+      </c>
+      <c r="D913">
+        <v>21706301</v>
+      </c>
+      <c r="E913">
+        <v>0.002903916951724374</v>
+      </c>
+      <c r="J913" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="914" spans="1:10">
+      <c r="A914" t="s">
+        <v>21</v>
+      </c>
+      <c r="B914">
+        <v>67889022</v>
+      </c>
+      <c r="C914">
+        <v>0.006464550934602905</v>
+      </c>
+      <c r="D914">
+        <v>53096402</v>
+      </c>
+      <c r="E914">
+        <v>0.007103354083377538</v>
+      </c>
+      <c r="J914" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="915" spans="1:10">
+      <c r="A915" t="s">
+        <v>22</v>
+      </c>
+      <c r="B915">
+        <v>535104093</v>
+      </c>
+      <c r="C915">
+        <v>0.05095385914548879</v>
+      </c>
+      <c r="D915">
+        <v>472331535</v>
+      </c>
+      <c r="E915">
+        <v>0.06318955732349305</v>
+      </c>
+      <c r="J915" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="916" spans="1:10">
+      <c r="A916" t="s">
+        <v>23</v>
+      </c>
+      <c r="B916">
+        <v>83164470</v>
+      </c>
+      <c r="C916">
+        <v>0.007919114702584096</v>
+      </c>
+      <c r="D916">
+        <v>74326565</v>
+      </c>
+      <c r="E916">
+        <v>0.009943572240472641</v>
+      </c>
+      <c r="J916" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="917" spans="1:10">
+      <c r="A917" t="s">
+        <v>24</v>
+      </c>
+      <c r="B917">
+        <v>5894401343</v>
+      </c>
+      <c r="C917">
+        <v>0.5612786366375299</v>
+      </c>
+      <c r="D917">
+        <v>4102083363</v>
+      </c>
+      <c r="E917">
+        <v>0.5487857841463742</v>
+      </c>
+      <c r="J917" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="918" spans="1:10">
+      <c r="A918" t="s">
+        <v>25</v>
+      </c>
+      <c r="B918">
+        <v>93285301</v>
+      </c>
+      <c r="C918">
+        <v>0.008882843823619426</v>
+      </c>
+      <c r="D918">
+        <v>79527571</v>
+      </c>
+      <c r="E918">
+        <v>0.01063937432528756</v>
+      </c>
+      <c r="J918" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="919" spans="1:10">
+      <c r="A919" t="s">
+        <v>26</v>
+      </c>
+      <c r="B919">
+        <v>1747630097</v>
+      </c>
+      <c r="C919">
+        <v>0.1664134118311723</v>
+      </c>
+      <c r="D919">
+        <v>1009146920</v>
+      </c>
+      <c r="E919">
+        <v>0.135005906707386</v>
+      </c>
+      <c r="J919" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="920" spans="1:10">
+      <c r="A920" t="s">
+        <v>10</v>
+      </c>
+      <c r="B920">
+        <v>83501934</v>
+      </c>
+      <c r="C920">
+        <v>0.008149463080859256</v>
+      </c>
+      <c r="D920">
+        <v>66447142</v>
+      </c>
+      <c r="E920">
+        <v>0.009150150298998022</v>
+      </c>
+      <c r="J920" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="921" spans="1:10">
+      <c r="A921" t="s">
+        <v>11</v>
+      </c>
+      <c r="B921">
+        <v>257364967</v>
+      </c>
+      <c r="C921">
+        <v>0.02511781699419154</v>
+      </c>
+      <c r="D921">
+        <v>219565538</v>
+      </c>
+      <c r="E921">
+        <v>0.03023542642632186</v>
+      </c>
+      <c r="J921" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="922" spans="1:10">
+      <c r="A922" t="s">
+        <v>12</v>
+      </c>
+      <c r="B922">
+        <v>399001471</v>
+      </c>
+      <c r="C922">
+        <v>0.03894098736830497</v>
+      </c>
+      <c r="D922">
+        <v>329030610</v>
+      </c>
+      <c r="E922">
+        <v>0.04530939095124665</v>
+      </c>
+      <c r="J922" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="923" spans="1:10">
+      <c r="A923" t="s">
+        <v>13</v>
+      </c>
+      <c r="B923">
+        <v>4879359</v>
+      </c>
+      <c r="C923">
+        <v>0.0004762064077313267</v>
+      </c>
+      <c r="D923">
+        <v>4119845</v>
+      </c>
+      <c r="E923">
+        <v>0.0005673261456237726</v>
+      </c>
+      <c r="J923" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="924" spans="1:10">
+      <c r="A924" t="s">
+        <v>14</v>
+      </c>
+      <c r="B924">
+        <v>246499240</v>
+      </c>
+      <c r="C924">
+        <v>0.02405736441792911</v>
+      </c>
+      <c r="D924">
+        <v>200933063</v>
+      </c>
+      <c r="E924">
+        <v>0.02766962838654578</v>
+      </c>
+      <c r="J924" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="925" spans="1:10">
+      <c r="A925" t="s">
+        <v>15</v>
+      </c>
+      <c r="B925">
+        <v>203547599</v>
+      </c>
+      <c r="C925">
+        <v>0.01986545177801564</v>
+      </c>
+      <c r="D925">
+        <v>175363327</v>
+      </c>
+      <c r="E925">
+        <v>0.02414852995456656</v>
+      </c>
+      <c r="J925" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="926" spans="1:10">
+      <c r="A926" t="s">
+        <v>16</v>
+      </c>
+      <c r="B926">
+        <v>174772490</v>
+      </c>
+      <c r="C926">
+        <v>0.01705711336943218</v>
+      </c>
+      <c r="D926">
+        <v>153955840</v>
+      </c>
+      <c r="E926">
+        <v>0.02120059694077574</v>
+      </c>
+      <c r="J926" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="927" spans="1:10">
+      <c r="A927" t="s">
+        <v>17</v>
+      </c>
+      <c r="B927">
+        <v>1902363</v>
+      </c>
+      <c r="C927">
+        <v>0.000185663209128697</v>
+      </c>
+      <c r="D927">
+        <v>1566803</v>
+      </c>
+      <c r="E927">
+        <v>0.0002157577061617036</v>
+      </c>
+      <c r="J927" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="928" spans="1:10">
+      <c r="A928" t="s">
+        <v>18</v>
+      </c>
+      <c r="B928">
+        <v>677065111</v>
+      </c>
+      <c r="C928">
+        <v>0.06607891411751463</v>
+      </c>
+      <c r="D928">
+        <v>510125183</v>
+      </c>
+      <c r="E928">
+        <v>0.07024714615647232</v>
+      </c>
+      <c r="J928" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="929" spans="1:10">
+      <c r="A929" t="s">
+        <v>19</v>
+      </c>
+      <c r="B929">
+        <v>45691069</v>
+      </c>
+      <c r="C929">
+        <v>0.0044592701282882</v>
+      </c>
+      <c r="D929">
+        <v>38128627</v>
+      </c>
+      <c r="E929">
+        <v>0.005250529326670424</v>
+      </c>
+      <c r="J929" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="930" spans="1:10">
+      <c r="A930" t="s">
+        <v>20</v>
+      </c>
+      <c r="B930">
+        <v>34337673</v>
+      </c>
+      <c r="C930">
+        <v>0.003351222959651661</v>
+      </c>
+      <c r="D930">
+        <v>27485158</v>
+      </c>
+      <c r="E930">
+        <v>0.003784862962077554</v>
+      </c>
+      <c r="J930" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="931" spans="1:10">
+      <c r="A931" t="s">
+        <v>21</v>
+      </c>
+      <c r="B931">
+        <v>73652511</v>
+      </c>
+      <c r="C931">
+        <v>0.007188197811167825</v>
+      </c>
+      <c r="D931">
+        <v>58928374</v>
+      </c>
+      <c r="E931">
+        <v>0.008114773077457074</v>
+      </c>
+      <c r="J931" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="932" spans="1:10">
+      <c r="A932" t="s">
+        <v>22</v>
+      </c>
+      <c r="B932">
+        <v>540751668</v>
+      </c>
+      <c r="C932">
+        <v>0.05277525373578846</v>
+      </c>
+      <c r="D932">
+        <v>478358184</v>
+      </c>
+      <c r="E932">
+        <v>0.06587264927595758</v>
+      </c>
+      <c r="J932" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="933" spans="1:10">
+      <c r="A933" t="s">
+        <v>23</v>
+      </c>
+      <c r="B933">
+        <v>85540556</v>
+      </c>
+      <c r="C933">
+        <v>0.008348424636945219</v>
+      </c>
+      <c r="D933">
+        <v>76427856</v>
+      </c>
+      <c r="E933">
+        <v>0.01052455152142101</v>
+      </c>
+      <c r="J933" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="934" spans="1:10">
+      <c r="A934" t="s">
+        <v>24</v>
+      </c>
+      <c r="B934">
+        <v>5464194537</v>
+      </c>
+      <c r="C934">
+        <v>0.5332840751438683</v>
+      </c>
+      <c r="D934">
+        <v>3742850577</v>
+      </c>
+      <c r="E934">
+        <v>0.5154118641587544</v>
+      </c>
+      <c r="J934" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="935" spans="1:10">
+      <c r="A935" t="s">
+        <v>25</v>
+      </c>
+      <c r="B935">
+        <v>111105274</v>
+      </c>
+      <c r="C935">
+        <v>0.01084344140522244</v>
+      </c>
+      <c r="D935">
+        <v>96868304</v>
+      </c>
+      <c r="E935">
+        <v>0.01333931775137945</v>
+      </c>
+      <c r="J935" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="936" spans="1:10">
+      <c r="A936" t="s">
+        <v>26</v>
+      </c>
+      <c r="B936">
+        <v>1842503275</v>
+      </c>
+      <c r="C936">
+        <v>0.1798211334359605</v>
+      </c>
+      <c r="D936">
+        <v>1081709017</v>
+      </c>
+      <c r="E936">
+        <v>0.1489574989595701</v>
+      </c>
+      <c r="J936" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="937" spans="1:10">
+      <c r="A937" t="s">
+        <v>10</v>
+      </c>
+      <c r="B937">
+        <v>105877532</v>
+      </c>
+      <c r="C937">
+        <v>0.009965996225998218</v>
+      </c>
+      <c r="D937">
+        <v>85943104</v>
+      </c>
+      <c r="E937">
+        <v>0.0113421968836636</v>
+      </c>
+      <c r="J937" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="938" spans="1:10">
+      <c r="A938" t="s">
+        <v>11</v>
+      </c>
+      <c r="B938">
+        <v>216579470</v>
+      </c>
+      <c r="C938">
+        <v>0.02038610213022999</v>
+      </c>
+      <c r="D938">
+        <v>182368958</v>
+      </c>
+      <c r="E938">
+        <v>0.0240678371019108</v>
+      </c>
+      <c r="J938" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="939" spans="1:10">
+      <c r="A939" t="s">
+        <v>12</v>
+      </c>
+      <c r="B939">
+        <v>406184685</v>
+      </c>
+      <c r="C939">
+        <v>0.03823318282266227</v>
+      </c>
+      <c r="D939">
+        <v>344856255</v>
+      </c>
+      <c r="E939">
+        <v>0.04551182536731394</v>
+      </c>
+      <c r="J939" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="940" spans="1:10">
+      <c r="A940" t="s">
+        <v>13</v>
+      </c>
+      <c r="B940">
+        <v>4875328</v>
+      </c>
+      <c r="C940">
+        <v>0.0004589028430366458</v>
+      </c>
+      <c r="D940">
+        <v>4224132</v>
+      </c>
+      <c r="E940">
+        <v>0.0005574727299421684</v>
+      </c>
+      <c r="J940" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="941" spans="1:10">
+      <c r="A941" t="s">
+        <v>14</v>
+      </c>
+      <c r="B941">
+        <v>231329998</v>
+      </c>
+      <c r="C941">
+        <v>0.02177453368508982</v>
+      </c>
+      <c r="D941">
+        <v>186527852</v>
+      </c>
+      <c r="E941">
+        <v>0.02461670015631348</v>
+      </c>
+      <c r="J941" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="942" spans="1:10">
+      <c r="A942" t="s">
+        <v>15</v>
+      </c>
+      <c r="B942">
+        <v>263320096</v>
+      </c>
+      <c r="C942">
+        <v>0.02478568430330893</v>
+      </c>
+      <c r="D942">
+        <v>233081896</v>
+      </c>
+      <c r="E942">
+        <v>0.03076059196616408</v>
+      </c>
+      <c r="J942" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="943" spans="1:10">
+      <c r="A943" t="s">
+        <v>16</v>
+      </c>
+      <c r="B943">
+        <v>183625833</v>
+      </c>
+      <c r="C943">
+        <v>0.01728425591440665</v>
+      </c>
+      <c r="D943">
+        <v>162944881</v>
+      </c>
+      <c r="E943">
+        <v>0.02150437714568857</v>
+      </c>
+      <c r="J943" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="944" spans="1:10">
+      <c r="A944" t="s">
+        <v>17</v>
+      </c>
+      <c r="B944">
+        <v>1732646</v>
+      </c>
+      <c r="C944">
+        <v>0.0001630897809082942</v>
+      </c>
+      <c r="D944">
+        <v>1397980</v>
+      </c>
+      <c r="E944">
+        <v>0.0001844960638077959</v>
+      </c>
+      <c r="J944" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="945" spans="1:10">
+      <c r="A945" t="s">
+        <v>18</v>
+      </c>
+      <c r="B945">
+        <v>652181136</v>
+      </c>
+      <c r="C945">
+        <v>0.06138823428603559</v>
+      </c>
+      <c r="D945">
+        <v>490603282</v>
+      </c>
+      <c r="E945">
+        <v>0.06474654460019894</v>
+      </c>
+      <c r="J945" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="946" spans="1:10">
+      <c r="A946" t="s">
+        <v>19</v>
+      </c>
+      <c r="B946">
+        <v>53719871</v>
+      </c>
+      <c r="C946">
+        <v>0.005056521639049077</v>
+      </c>
+      <c r="D946">
+        <v>45641904</v>
+      </c>
+      <c r="E946">
+        <v>0.006023513664496842</v>
+      </c>
+      <c r="J946" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="947" spans="1:10">
+      <c r="A947" t="s">
+        <v>20</v>
+      </c>
+      <c r="B947">
+        <v>29701572</v>
+      </c>
+      <c r="C947">
+        <v>0.002795737196237388</v>
+      </c>
+      <c r="D947">
+        <v>23068230</v>
+      </c>
+      <c r="E947">
+        <v>0.003044390931209969</v>
+      </c>
+      <c r="J947" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="948" spans="1:10">
+      <c r="A948" t="s">
+        <v>21</v>
+      </c>
+      <c r="B948">
+        <v>57579727</v>
+      </c>
+      <c r="C948">
+        <v>0.005419840556691553</v>
+      </c>
+      <c r="D948">
+        <v>43049709</v>
+      </c>
+      <c r="E948">
+        <v>0.005681413080710058</v>
+      </c>
+      <c r="J948" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="949" spans="1:10">
+      <c r="A949" t="s">
+        <v>22</v>
+      </c>
+      <c r="B949">
+        <v>612012451</v>
+      </c>
+      <c r="C949">
+        <v>0.0576072530376881</v>
+      </c>
+      <c r="D949">
+        <v>547883742</v>
+      </c>
+      <c r="E949">
+        <v>0.07230603715595789</v>
+      </c>
+      <c r="J949" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="950" spans="1:10">
+      <c r="A950" t="s">
+        <v>23</v>
+      </c>
+      <c r="B950">
+        <v>84004041</v>
+      </c>
+      <c r="C950">
+        <v>0.007907097377133796</v>
+      </c>
+      <c r="D950">
+        <v>74427492</v>
+      </c>
+      <c r="E950">
+        <v>0.009822443320423913</v>
+      </c>
+      <c r="J950" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="951" spans="1:10">
+      <c r="A951" t="s">
+        <v>24</v>
+      </c>
+      <c r="B951">
+        <v>5690280350</v>
+      </c>
+      <c r="C951">
+        <v>0.5356123383474014</v>
+      </c>
+      <c r="D951">
+        <v>3901776456</v>
+      </c>
+      <c r="E951">
+        <v>0.5149303981386943</v>
+      </c>
+      <c r="J951" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="952" spans="1:10">
+      <c r="A952" t="s">
+        <v>25</v>
+      </c>
+      <c r="B952">
+        <v>148955304</v>
+      </c>
+      <c r="C952">
+        <v>0.01402080280362426</v>
+      </c>
+      <c r="D952">
+        <v>133850352</v>
+      </c>
+      <c r="E952">
+        <v>0.01766467551988437</v>
+      </c>
+      <c r="J952" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="953" spans="1:10">
+      <c r="A953" t="s">
+        <v>26</v>
+      </c>
+      <c r="B953">
+        <v>1881918356</v>
+      </c>
+      <c r="C953">
+        <v>0.177140427050498</v>
+      </c>
+      <c r="D953">
+        <v>1115642803</v>
+      </c>
+      <c r="E953">
+        <v>0.1472350861736193</v>
+      </c>
+      <c r="J953" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="954" spans="1:10">
+      <c r="A954" t="s">
+        <v>10</v>
+      </c>
+      <c r="B954">
+        <v>89223102</v>
+      </c>
+      <c r="C954">
+        <v>0.008114364134811045</v>
+      </c>
+      <c r="D954">
+        <v>71903243</v>
+      </c>
+      <c r="E954">
+        <v>0.009172812121081954</v>
+      </c>
+      <c r="J954" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="955" spans="1:10">
+      <c r="A955" t="s">
+        <v>11</v>
+      </c>
+      <c r="B955">
+        <v>341507862</v>
+      </c>
+      <c r="C955">
+        <v>0.03105831432725574</v>
+      </c>
+      <c r="D955">
+        <v>299220702</v>
+      </c>
+      <c r="E955">
+        <v>0.03817206523194304</v>
+      </c>
+      <c r="J955" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="956" spans="1:10">
+      <c r="A956" t="s">
+        <v>12</v>
+      </c>
+      <c r="B956">
+        <v>357874835</v>
+      </c>
+      <c r="C956">
+        <v>0.03254680302278014</v>
+      </c>
+      <c r="D956">
+        <v>290491620</v>
+      </c>
+      <c r="E956">
+        <v>0.03705848223019278</v>
+      </c>
+      <c r="J956" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="957" spans="1:10">
+      <c r="A957" t="s">
+        <v>13</v>
+      </c>
+      <c r="B957">
+        <v>2869027</v>
+      </c>
+      <c r="C957">
+        <v>0.0002609226676584785</v>
+      </c>
+      <c r="D957">
+        <v>2355875</v>
+      </c>
+      <c r="E957">
+        <v>0.000300542755154367</v>
+      </c>
+      <c r="J957" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="958" spans="1:10">
+      <c r="A958" t="s">
+        <v>14</v>
+      </c>
+      <c r="B958">
+        <v>246973842</v>
+      </c>
+      <c r="C958">
+        <v>0.02246095059283289</v>
+      </c>
+      <c r="D958">
+        <v>198179366</v>
+      </c>
+      <c r="E958">
+        <v>0.02528205981742906</v>
+      </c>
+      <c r="J958" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="959" spans="1:10">
+      <c r="A959" t="s">
+        <v>15</v>
+      </c>
+      <c r="B959">
+        <v>161870017</v>
+      </c>
+      <c r="C959">
+        <v>0.01472121267926836</v>
+      </c>
+      <c r="D959">
+        <v>136676601</v>
+      </c>
+      <c r="E959">
+        <v>0.01743605336856756</v>
+      </c>
+      <c r="J959" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="960" spans="1:10">
+      <c r="A960" t="s">
+        <v>16</v>
+      </c>
+      <c r="B960">
+        <v>140126788</v>
+      </c>
+      <c r="C960">
+        <v>0.01274378224233305</v>
+      </c>
+      <c r="D960">
+        <v>120880140</v>
+      </c>
+      <c r="E960">
+        <v>0.01542087348396906</v>
+      </c>
+      <c r="J960" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="961" spans="1:10">
+      <c r="A961" t="s">
+        <v>17</v>
+      </c>
+      <c r="B961">
+        <v>1766551</v>
+      </c>
+      <c r="C961">
+        <v>0.0001606583693617219</v>
+      </c>
+      <c r="D961">
+        <v>1417666</v>
+      </c>
+      <c r="E961">
+        <v>0.0001808539271093207</v>
+      </c>
+      <c r="J961" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="962" spans="1:10">
+      <c r="A962" t="s">
+        <v>18</v>
+      </c>
+      <c r="B962">
+        <v>643142084</v>
+      </c>
+      <c r="C962">
+        <v>0.05849033426339775</v>
+      </c>
+      <c r="D962">
+        <v>484011910</v>
+      </c>
+      <c r="E962">
+        <v>0.0617461762440399</v>
+      </c>
+      <c r="J962" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="963" spans="1:10">
+      <c r="A963" t="s">
+        <v>19</v>
+      </c>
+      <c r="B963">
+        <v>47218377</v>
+      </c>
+      <c r="C963">
+        <v>0.004294258955856374</v>
+      </c>
+      <c r="D963">
+        <v>39546786</v>
+      </c>
+      <c r="E963">
+        <v>0.005045046966388347</v>
+      </c>
+      <c r="J963" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="964" spans="1:10">
+      <c r="A964" t="s">
+        <v>20</v>
+      </c>
+      <c r="B964">
+        <v>30196764</v>
+      </c>
+      <c r="C964">
+        <v>0.002746234252076926</v>
+      </c>
+      <c r="D964">
+        <v>23096549</v>
+      </c>
+      <c r="E964">
+        <v>0.002946463828096923</v>
+      </c>
+      <c r="J964" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="965" spans="1:10">
+      <c r="A965" t="s">
+        <v>21</v>
+      </c>
+      <c r="B965">
+        <v>59644450</v>
+      </c>
+      <c r="C965">
+        <v>0.005424343864670057</v>
+      </c>
+      <c r="D965">
+        <v>44278850</v>
+      </c>
+      <c r="E965">
+        <v>0.005648723966282991</v>
+      </c>
+      <c r="J965" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="966" spans="1:10">
+      <c r="A966" t="s">
+        <v>22</v>
+      </c>
+      <c r="B966">
+        <v>605254057</v>
+      </c>
+      <c r="C966">
+        <v>0.05504462075942709</v>
+      </c>
+      <c r="D966">
+        <v>535598045</v>
+      </c>
+      <c r="E966">
+        <v>0.06832710228666318</v>
+      </c>
+      <c r="J966" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="967" spans="1:10">
+      <c r="A967" t="s">
+        <v>23</v>
+      </c>
+      <c r="B967">
+        <v>84247460</v>
+      </c>
+      <c r="C967">
+        <v>0.007661856094993516</v>
+      </c>
+      <c r="D967">
+        <v>74453236</v>
+      </c>
+      <c r="E967">
+        <v>0.00949811882107425</v>
+      </c>
+      <c r="J967" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="968" spans="1:10">
+      <c r="A968" t="s">
+        <v>24</v>
+      </c>
+      <c r="B968">
+        <v>6257693092</v>
+      </c>
+      <c r="C968">
+        <v>0.5691037327124049</v>
+      </c>
+      <c r="D968">
+        <v>4378371943</v>
+      </c>
+      <c r="E968">
+        <v>0.558555936473624</v>
+      </c>
+      <c r="J968" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="969" spans="1:10">
+      <c r="A969" t="s">
+        <v>25</v>
+      </c>
+      <c r="B969">
+        <v>99293800</v>
+      </c>
+      <c r="C969">
+        <v>0.009030240279351653</v>
+      </c>
+      <c r="D969">
+        <v>85306373</v>
+      </c>
+      <c r="E969">
+        <v>0.01088267092848564</v>
+      </c>
+      <c r="J969" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="970" spans="1:10">
+      <c r="A970" t="s">
+        <v>26</v>
+      </c>
+      <c r="B970">
+        <v>1826796448</v>
+      </c>
+      <c r="C970">
+        <v>0.1661373707815204</v>
+      </c>
+      <c r="D970">
+        <v>1052946049</v>
+      </c>
+      <c r="E970">
+        <v>0.1343260175498976</v>
+      </c>
+      <c r="J970" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="971" spans="1:10">
+      <c r="A971" t="s">
+        <v>10</v>
+      </c>
+      <c r="B971">
+        <v>95461110</v>
+      </c>
+      <c r="C971">
+        <v>0.008776856334833591</v>
+      </c>
+      <c r="D971">
+        <v>77443034</v>
+      </c>
+      <c r="E971">
+        <v>0.009921441069180007</v>
+      </c>
+      <c r="J971" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="972" spans="1:10">
+      <c r="A972" t="s">
+        <v>11</v>
+      </c>
+      <c r="B972">
+        <v>273655691</v>
+      </c>
+      <c r="C972">
+        <v>0.02516036829151278</v>
+      </c>
+      <c r="D972">
+        <v>234245374</v>
+      </c>
+      <c r="E972">
+        <v>0.03000982210832585</v>
+      </c>
+      <c r="J972" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="973" spans="1:10">
+      <c r="A973" t="s">
+        <v>12</v>
+      </c>
+      <c r="B973">
+        <v>359091871</v>
+      </c>
+      <c r="C973">
+        <v>0.03301551556202936</v>
+      </c>
+      <c r="D973">
+        <v>289526039</v>
+      </c>
+      <c r="E973">
+        <v>0.03709198084790444</v>
+      </c>
+      <c r="J973" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="974" spans="1:10">
+      <c r="A974" t="s">
+        <v>13</v>
+      </c>
+      <c r="B974">
+        <v>3439968</v>
+      </c>
+      <c r="C974">
+        <v>0.000316276491363078</v>
+      </c>
+      <c r="D974">
+        <v>2920674</v>
+      </c>
+      <c r="E974">
+        <v>0.0003741756162766847</v>
+      </c>
+      <c r="J974" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="975" spans="1:10">
+      <c r="A975" t="s">
+        <v>14</v>
+      </c>
+      <c r="B975">
+        <v>218722101</v>
+      </c>
+      <c r="C975">
+        <v>0.02010968087140368</v>
+      </c>
+      <c r="D975">
+        <v>171788205</v>
+      </c>
+      <c r="E975">
+        <v>0.02200826161185413</v>
+      </c>
+      <c r="J975" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="976" spans="1:10">
+      <c r="A976" t="s">
+        <v>15</v>
+      </c>
+      <c r="B976">
+        <v>181562258</v>
+      </c>
+      <c r="C976">
+        <v>0.01669314189091234</v>
+      </c>
+      <c r="D976">
+        <v>152898822</v>
+      </c>
+      <c r="E976">
+        <v>0.01958829056232538</v>
+      </c>
+      <c r="J976" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="977" spans="1:10">
+      <c r="A977" t="s">
+        <v>16</v>
+      </c>
+      <c r="B977">
+        <v>156682372</v>
+      </c>
+      <c r="C977">
+        <v>0.01440564298115697</v>
+      </c>
+      <c r="D977">
+        <v>135942824</v>
+      </c>
+      <c r="E977">
+        <v>0.01741601080729752</v>
+      </c>
+      <c r="J977" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="978" spans="1:10">
+      <c r="A978" t="s">
+        <v>17</v>
+      </c>
+      <c r="B978">
+        <v>2397536</v>
+      </c>
+      <c r="C978">
+        <v>0.0002204335255434552</v>
+      </c>
+      <c r="D978">
+        <v>2040007</v>
+      </c>
+      <c r="E978">
+        <v>0.0002613509335289563</v>
+      </c>
+      <c r="J978" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="979" spans="1:10">
+      <c r="A979" t="s">
+        <v>18</v>
+      </c>
+      <c r="B979">
+        <v>663603549</v>
+      </c>
+      <c r="C979">
+        <v>0.06101283562341464</v>
+      </c>
+      <c r="D979">
+        <v>488179010</v>
+      </c>
+      <c r="E979">
+        <v>0.06254196186225913</v>
+      </c>
+      <c r="J979" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="980" spans="1:10">
+      <c r="A980" t="s">
+        <v>19</v>
+      </c>
+      <c r="B980">
+        <v>43963157</v>
+      </c>
+      <c r="C980">
+        <v>0.004042047206603126</v>
+      </c>
+      <c r="D980">
+        <v>36344317</v>
+      </c>
+      <c r="E980">
+        <v>0.004656170874130488</v>
+      </c>
+      <c r="J980" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="981" spans="1:10">
+      <c r="A981" t="s">
+        <v>20</v>
+      </c>
+      <c r="B981">
+        <v>31367191</v>
+      </c>
+      <c r="C981">
+        <v>0.002883952732524116</v>
+      </c>
+      <c r="D981">
+        <v>23655957</v>
+      </c>
+      <c r="E981">
+        <v>0.003030630015225853</v>
+      </c>
+      <c r="J981" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="982" spans="1:10">
+      <c r="A982" t="s">
+        <v>21</v>
+      </c>
+      <c r="B982">
+        <v>82711862</v>
+      </c>
+      <c r="C982">
+        <v>0.007604668853741401</v>
+      </c>
+      <c r="D982">
+        <v>65589423</v>
+      </c>
+      <c r="E982">
+        <v>0.008402842211166724</v>
+      </c>
+      <c r="J982" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="983" spans="1:10">
+      <c r="A983" t="s">
+        <v>22</v>
+      </c>
+      <c r="B983">
+        <v>606763800</v>
+      </c>
+      <c r="C983">
+        <v>0.05578689271241139</v>
+      </c>
+      <c r="D983">
+        <v>535338273</v>
+      </c>
+      <c r="E983">
+        <v>0.06858366535130969</v>
+      </c>
+      <c r="J983" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="984" spans="1:10">
+      <c r="A984" t="s">
+        <v>23</v>
+      </c>
+      <c r="B984">
+        <v>84753436</v>
+      </c>
+      <c r="C984">
+        <v>0.007792374629370153</v>
+      </c>
+      <c r="D984">
+        <v>73529199</v>
+      </c>
+      <c r="E984">
+        <v>0.009420028852982562</v>
+      </c>
+      <c r="J984" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="985" spans="1:10">
+      <c r="A985" t="s">
+        <v>24</v>
+      </c>
+      <c r="B985">
+        <v>6241176118</v>
+      </c>
+      <c r="C985">
+        <v>0.5738243159762172</v>
+      </c>
+      <c r="D985">
+        <v>4440514631</v>
+      </c>
+      <c r="E985">
+        <v>0.5688865989973754</v>
+      </c>
+      <c r="J985" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="986" spans="1:10">
+      <c r="A986" t="s">
+        <v>25</v>
+      </c>
+      <c r="B986">
+        <v>91530694</v>
+      </c>
+      <c r="C986">
+        <v>0.008415487222656587</v>
+      </c>
+      <c r="D986">
+        <v>76942191</v>
+      </c>
+      <c r="E986">
+        <v>0.00985727668856688</v>
+      </c>
+      <c r="J986" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="987" spans="1:10">
+      <c r="A987" t="s">
+        <v>26</v>
+      </c>
+      <c r="B987">
+        <v>1739575366</v>
+      </c>
+      <c r="C987">
+        <v>0.1599395090943062</v>
+      </c>
+      <c r="D987">
+        <v>998725564</v>
+      </c>
+      <c r="E987">
+        <v>0.1279494915902903</v>
+      </c>
+      <c r="J987" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="988" spans="1:10">
+      <c r="A988" t="s">
+        <v>10</v>
+      </c>
+      <c r="B988">
+        <v>81531057</v>
+      </c>
+      <c r="C988">
+        <v>0.009707706865865485</v>
+      </c>
+      <c r="D988">
+        <v>68752020</v>
+      </c>
+      <c r="E988">
+        <v>0.01089251205750448</v>
+      </c>
+      <c r="J988" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="989" spans="1:10">
+      <c r="A989" t="s">
+        <v>11</v>
+      </c>
+      <c r="B989">
+        <v>166812016</v>
+      </c>
+      <c r="C989">
+        <v>0.01986190554394583</v>
+      </c>
+      <c r="D989">
+        <v>144332183</v>
+      </c>
+      <c r="E989">
+        <v>0.02286681967473018</v>
+      </c>
+      <c r="J989" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="990" spans="1:10">
+      <c r="A990" t="s">
+        <v>12</v>
+      </c>
+      <c r="B990">
+        <v>326651815</v>
+      </c>
+      <c r="C990">
+        <v>0.03889364597864741</v>
+      </c>
+      <c r="D990">
+        <v>269670834</v>
+      </c>
+      <c r="E990">
+        <v>0.04272445829085877</v>
+      </c>
+      <c r="J990" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="991" spans="1:10">
+      <c r="A991" t="s">
+        <v>13</v>
+      </c>
+      <c r="B991">
+        <v>2972503</v>
+      </c>
+      <c r="C991">
+        <v>0.0003539287830146217</v>
+      </c>
+      <c r="D991">
+        <v>2576671</v>
+      </c>
+      <c r="E991">
+        <v>0.0004082268409818667</v>
+      </c>
+      <c r="J991" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="992" spans="1:10">
+      <c r="A992" t="s">
+        <v>14</v>
+      </c>
+      <c r="B992">
+        <v>183711696</v>
+      </c>
+      <c r="C992">
+        <v>0.02187410979596392</v>
+      </c>
+      <c r="D992">
+        <v>150122333</v>
+      </c>
+      <c r="E992">
+        <v>0.0237841640478811</v>
+      </c>
+      <c r="J992" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="993" spans="1:10">
+      <c r="A993" t="s">
+        <v>15</v>
+      </c>
+      <c r="B993">
+        <v>227892300</v>
+      </c>
+      <c r="C993">
+        <v>0.02713458805505094</v>
+      </c>
+      <c r="D993">
+        <v>201275874</v>
+      </c>
+      <c r="E993">
+        <v>0.03188851592185585</v>
+      </c>
+      <c r="J993" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="994" spans="1:10">
+      <c r="A994" t="s">
+        <v>16</v>
+      </c>
+      <c r="B994">
+        <v>126167109</v>
+      </c>
+      <c r="C994">
+        <v>0.01502241422291016</v>
+      </c>
+      <c r="D994">
+        <v>110032281</v>
+      </c>
+      <c r="E994">
+        <v>0.01743262157980552</v>
+      </c>
+      <c r="J994" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="995" spans="1:10">
+      <c r="A995" t="s">
+        <v>17</v>
+      </c>
+      <c r="B995">
+        <v>1264531</v>
+      </c>
+      <c r="C995">
+        <v>0.0001505646648344047</v>
+      </c>
+      <c r="D995">
+        <v>1043658</v>
+      </c>
+      <c r="E995">
+        <v>0.0001653487031931717</v>
+      </c>
+      <c r="J995" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="996" spans="1:10">
+      <c r="A996" t="s">
+        <v>18</v>
+      </c>
+      <c r="B996">
+        <v>518635906</v>
+      </c>
+      <c r="C996">
+        <v>0.06175272995124504</v>
+      </c>
+      <c r="D996">
+        <v>391097285</v>
+      </c>
+      <c r="E996">
+        <v>0.06196227969039695</v>
+      </c>
+      <c r="J996" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="997" spans="1:10">
+      <c r="A997" t="s">
+        <v>19</v>
+      </c>
+      <c r="B997">
+        <v>36186673</v>
+      </c>
+      <c r="C997">
+        <v>0.004308660121196873</v>
+      </c>
+      <c r="D997">
+        <v>30506610</v>
+      </c>
+      <c r="E997">
+        <v>0.004833219696797078</v>
+      </c>
+      <c r="J997" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="998" spans="1:10">
+      <c r="A998" t="s">
+        <v>20</v>
+      </c>
+      <c r="B998">
+        <v>25361378</v>
+      </c>
+      <c r="C998">
+        <v>0.003019718281567353</v>
+      </c>
+      <c r="D998">
+        <v>19945281</v>
+      </c>
+      <c r="E998">
+        <v>0.003159968445768066</v>
+      </c>
+      <c r="J998" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="999" spans="1:10">
+      <c r="A999" t="s">
+        <v>21</v>
+      </c>
+      <c r="B999">
+        <v>43251097</v>
+      </c>
+      <c r="C999">
+        <v>0.005149804096163185</v>
+      </c>
+      <c r="D999">
+        <v>31631038</v>
+      </c>
+      <c r="E999">
+        <v>0.005011364943261046</v>
+      </c>
+      <c r="J999" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="1000" spans="1:10">
+      <c r="A1000" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1000">
+        <v>431476488</v>
+      </c>
+      <c r="C1000">
+        <v>0.0513748676779344</v>
+      </c>
+      <c r="D1000">
+        <v>371536679</v>
+      </c>
+      <c r="E1000">
+        <v>0.05886325602960714</v>
+      </c>
+      <c r="J1000" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="1001" spans="1:10">
+      <c r="A1001" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1001">
+        <v>65489005</v>
+      </c>
+      <c r="C1001">
+        <v>0.007797618317118091</v>
+      </c>
+      <c r="D1001">
+        <v>57005042</v>
+      </c>
+      <c r="E1001">
+        <v>0.009031416201641045</v>
+      </c>
+      <c r="J1001" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="1002" spans="1:10">
+      <c r="A1002" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1002">
+        <v>4712469747</v>
+      </c>
+      <c r="C1002">
+        <v>0.5611024387692568</v>
+      </c>
+      <c r="D1002">
+        <v>3557049830</v>
+      </c>
+      <c r="E1002">
+        <v>0.5635501060538912</v>
+      </c>
+      <c r="J1002" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="1003" spans="1:10">
+      <c r="A1003" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1003">
+        <v>74777010</v>
+      </c>
+      <c r="C1003">
+        <v>0.008903518733798485</v>
+      </c>
+      <c r="D1003">
+        <v>63218054</v>
+      </c>
+      <c r="E1003">
+        <v>0.01001575539812458</v>
+      </c>
+      <c r="J1003" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="1004" spans="1:10">
+      <c r="A1004" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1004">
+        <v>1373940410</v>
+      </c>
+      <c r="C1004">
+        <v>0.163591780141487</v>
+      </c>
+      <c r="D1004">
+        <v>842065139</v>
+      </c>
+      <c r="E1004">
+        <v>0.1334099664237019</v>
+      </c>
+      <c r="J1004" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="1005" spans="1:10">
+      <c r="A1005" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1005">
+        <v>77649928</v>
+      </c>
+      <c r="C1005">
+        <v>0.01090587585926909</v>
+      </c>
+      <c r="D1005">
+        <v>66747685</v>
+      </c>
+      <c r="E1005">
+        <v>0.01220795088832088</v>
+      </c>
+      <c r="J1005" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="1006" spans="1:10">
+      <c r="A1006" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1006">
+        <v>166547811</v>
+      </c>
+      <c r="C1006">
+        <v>0.02339151880989523</v>
+      </c>
+      <c r="D1006">
+        <v>148175941</v>
+      </c>
+      <c r="E1006">
+        <v>0.02710093407072819</v>
+      </c>
+      <c r="J1006" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="1007" spans="1:10">
+      <c r="A1007" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1007">
+        <v>256573344</v>
+      </c>
+      <c r="C1007">
+        <v>0.03603553938210403</v>
+      </c>
+      <c r="D1007">
+        <v>214623499</v>
+      </c>
+      <c r="E1007">
+        <v>0.03925399263317651</v>
+      </c>
+      <c r="J1007" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="1008" spans="1:10">
+      <c r="A1008" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1008">
+        <v>3705175</v>
+      </c>
+      <c r="C1008">
+        <v>0.0005203891314215685</v>
+      </c>
+      <c r="D1008">
+        <v>3187542</v>
+      </c>
+      <c r="E1008">
+        <v>0.0005829918474395048</v>
+      </c>
+      <c r="J1008" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="1009" spans="1:10">
+      <c r="A1009" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1009">
+        <v>162497091</v>
+      </c>
+      <c r="C1009">
+        <v>0.02282259813477679</v>
+      </c>
+      <c r="D1009">
+        <v>136188287</v>
+      </c>
+      <c r="E1009">
+        <v>0.02490842819882891</v>
+      </c>
+      <c r="J1009" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="1010" spans="1:10">
+      <c r="A1010" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1010">
+        <v>180756781</v>
+      </c>
+      <c r="C1010">
+        <v>0.02538715830241451</v>
+      </c>
+      <c r="D1010">
+        <v>161041048</v>
+      </c>
+      <c r="E1010">
+        <v>0.02945392345798549</v>
+      </c>
+      <c r="J1010" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="1011" spans="1:10">
+      <c r="A1011" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1011">
+        <v>111637122</v>
+      </c>
+      <c r="C1011">
+        <v>0.01567935251424931</v>
+      </c>
+      <c r="D1011">
+        <v>98514221</v>
+      </c>
+      <c r="E1011">
+        <v>0.01801795480651036</v>
+      </c>
+      <c r="J1011" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="1012" spans="1:10">
+      <c r="A1012" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1012">
+        <v>945484</v>
+      </c>
+      <c r="C1012">
+        <v>0.000132792539497592</v>
+      </c>
+      <c r="D1012">
+        <v>765933</v>
+      </c>
+      <c r="E1012">
+        <v>0.0001400868426784282</v>
+      </c>
+      <c r="J1012" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="1013" spans="1:10">
+      <c r="A1013" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1013">
+        <v>472519189</v>
+      </c>
+      <c r="C1013">
+        <v>0.06636497610605005</v>
+      </c>
+      <c r="D1013">
+        <v>364309325</v>
+      </c>
+      <c r="E1013">
+        <v>0.06663108013045443</v>
+      </c>
+      <c r="J1013" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="1014" spans="1:10">
+      <c r="A1014" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1014">
+        <v>28091189</v>
+      </c>
+      <c r="C1014">
+        <v>0.003945387044959852</v>
+      </c>
+      <c r="D1014">
+        <v>23893464</v>
+      </c>
+      <c r="E1014">
+        <v>0.004370042722288616</v>
+      </c>
+      <c r="J1014" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="1015" spans="1:10">
+      <c r="A1015" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1015">
+        <v>20385478</v>
+      </c>
+      <c r="C1015">
+        <v>0.002863125544686416</v>
+      </c>
+      <c r="D1015">
+        <v>16654722</v>
+      </c>
+      <c r="E1015">
+        <v>0.003046098576072524</v>
+      </c>
+      <c r="J1015" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="1016" spans="1:10">
+      <c r="A1016" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1016">
+        <v>34461634</v>
+      </c>
+      <c r="C1016">
+        <v>0.004840111407592892</v>
+      </c>
+      <c r="D1016">
+        <v>26004322</v>
+      </c>
+      <c r="E1016">
+        <v>0.004756112303521572</v>
+      </c>
+      <c r="J1016" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="1017" spans="1:10">
+      <c r="A1017" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1017">
+        <v>353860374</v>
+      </c>
+      <c r="C1017">
+        <v>0.04969943192166939</v>
+      </c>
+      <c r="D1017">
+        <v>310164675</v>
+      </c>
+      <c r="E1017">
+        <v>0.05672818644859381</v>
+      </c>
+      <c r="J1017" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="1018" spans="1:10">
+      <c r="A1018" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1018">
+        <v>46528497</v>
+      </c>
+      <c r="C1018">
+        <v>0.006534893531393539</v>
+      </c>
+      <c r="D1018">
+        <v>40716058</v>
+      </c>
+      <c r="E1018">
+        <v>0.007446844582400493</v>
+      </c>
+      <c r="J1018" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="1019" spans="1:10">
+      <c r="A1019" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1019">
+        <v>3985632701</v>
+      </c>
+      <c r="C1019">
+        <v>0.5597792113567619</v>
+      </c>
+      <c r="D1019">
+        <v>3048999443</v>
+      </c>
+      <c r="E1019">
+        <v>0.5576528303365387</v>
+      </c>
+      <c r="J1019" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="1020" spans="1:10">
+      <c r="A1020" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1020">
+        <v>68788650</v>
+      </c>
+      <c r="C1020">
+        <v>0.009661315815086273</v>
+      </c>
+      <c r="D1020">
+        <v>59950898</v>
+      </c>
+      <c r="E1020">
+        <v>0.01096483898272629</v>
+      </c>
+      <c r="J1020" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="1021" spans="1:10">
+      <c r="A1021" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1021">
+        <v>1149427977</v>
+      </c>
+      <c r="C1021">
+        <v>0.1614363225981716</v>
+      </c>
+      <c r="D1021">
+        <v>747621384</v>
+      </c>
+      <c r="E1021">
+        <v>0.1367377031717353</v>
+      </c>
+      <c r="J1021" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="1022" spans="1:10">
+      <c r="A1022" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1022">
+        <v>103749779</v>
+      </c>
+      <c r="C1022">
+        <v>0.01058218583962537</v>
+      </c>
+      <c r="D1022">
+        <v>84239870</v>
+      </c>
+      <c r="E1022">
+        <v>0.01207344387626581</v>
+      </c>
+      <c r="J1022" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="1023" spans="1:10">
+      <c r="A1023" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1023">
+        <v>242400291</v>
+      </c>
+      <c r="C1023">
+        <v>0.02472414834677642</v>
+      </c>
+      <c r="D1023">
+        <v>209355487</v>
+      </c>
+      <c r="E1023">
+        <v>0.03000528992367624</v>
+      </c>
+      <c r="J1023" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="1024" spans="1:10">
+      <c r="A1024" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1024">
+        <v>356077082</v>
+      </c>
+      <c r="C1024">
+        <v>0.03631886150770038</v>
+      </c>
+      <c r="D1024">
+        <v>297140720</v>
+      </c>
+      <c r="E1024">
+        <v>0.04258686304089992</v>
+      </c>
+      <c r="J1024" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="1025" spans="1:10">
+      <c r="A1025" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1025">
+        <v>3922185</v>
+      </c>
+      <c r="C1025">
+        <v>0.0004000518455792665</v>
+      </c>
+      <c r="D1025">
+        <v>3436538</v>
+      </c>
+      <c r="E1025">
+        <v>0.000492532202051769</v>
+      </c>
+      <c r="J1025" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="1026" spans="1:10">
+      <c r="A1026" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1026">
+        <v>232640945</v>
+      </c>
+      <c r="C1026">
+        <v>0.02372872248620466</v>
+      </c>
+      <c r="D1026">
+        <v>187473991</v>
+      </c>
+      <c r="E1026">
+        <v>0.02686918567891975</v>
+      </c>
+      <c r="J1026" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="1027" spans="1:10">
+      <c r="A1027" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1027">
+        <v>305781382</v>
+      </c>
+      <c r="C1027">
+        <v>0.03118884147812474</v>
+      </c>
+      <c r="D1027">
+        <v>270588262</v>
+      </c>
+      <c r="E1027">
+        <v>0.03878130622510824</v>
+      </c>
+      <c r="J1027" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="1028" spans="1:10">
+      <c r="A1028" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1028">
+        <v>135042920</v>
+      </c>
+      <c r="C1028">
+        <v>0.01377399826331834</v>
+      </c>
+      <c r="D1028">
+        <v>118668822</v>
+      </c>
+      <c r="E1028">
+        <v>0.01700787717596879</v>
+      </c>
+      <c r="J1028" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="1029" spans="1:10">
+      <c r="A1029" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1029">
+        <v>1335384</v>
+      </c>
+      <c r="C1029">
+        <v>0.0001362054145220134</v>
+      </c>
+      <c r="D1029">
+        <v>1064170</v>
+      </c>
+      <c r="E1029">
+        <v>0.0001525191903763122</v>
+      </c>
+      <c r="J1029" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="1030" spans="1:10">
+      <c r="A1030" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1030">
+        <v>717154374</v>
+      </c>
+      <c r="C1030">
+        <v>0.07314773038088299</v>
+      </c>
+      <c r="D1030">
+        <v>536994818</v>
+      </c>
+      <c r="E1030">
+        <v>0.07696328112767237</v>
+      </c>
+      <c r="J1030" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="1031" spans="1:10">
+      <c r="A1031" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1031">
+        <v>44912702</v>
+      </c>
+      <c r="C1031">
+        <v>0.00458096936402837</v>
+      </c>
+      <c r="D1031">
+        <v>37792219</v>
+      </c>
+      <c r="E1031">
+        <v>0.005416464140507891</v>
+      </c>
+      <c r="J1031" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="1032" spans="1:10">
+      <c r="A1032" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1032">
+        <v>30480767</v>
+      </c>
+      <c r="C1032">
+        <v>0.003108952559102031</v>
+      </c>
+      <c r="D1032">
+        <v>23907968</v>
+      </c>
+      <c r="E1032">
+        <v>0.003426542679179811</v>
+      </c>
+      <c r="J1032" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="1033" spans="1:10">
+      <c r="A1033" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1033">
+        <v>52582682</v>
+      </c>
+      <c r="C1033">
+        <v>0.005363285765359787</v>
+      </c>
+      <c r="D1033">
+        <v>37627373</v>
+      </c>
+      <c r="E1033">
+        <v>0.005392838048382785</v>
+      </c>
+      <c r="J1033" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="1034" spans="1:10">
+      <c r="A1034" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1034">
+        <v>493793572</v>
+      </c>
+      <c r="C1034">
+        <v>0.05036555639618692</v>
+      </c>
+      <c r="D1034">
+        <v>438649277</v>
+      </c>
+      <c r="E1034">
+        <v>0.06286818138755527</v>
+      </c>
+      <c r="J1034" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="1035" spans="1:10">
+      <c r="A1035" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1035">
+        <v>90914817</v>
+      </c>
+      <c r="C1035">
+        <v>0.009273055791950474</v>
+      </c>
+      <c r="D1035">
+        <v>78985938</v>
+      </c>
+      <c r="E1035">
+        <v>0.01132043875966583</v>
+      </c>
+      <c r="J1035" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="1036" spans="1:10">
+      <c r="A1036" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1036">
+        <v>5139953258</v>
+      </c>
+      <c r="C1036">
+        <v>0.5242607850099023</v>
+      </c>
+      <c r="D1036">
+        <v>3547895595</v>
+      </c>
+      <c r="E1036">
+        <v>0.5084922180564049</v>
+      </c>
+      <c r="J1036" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="1037" spans="1:10">
+      <c r="A1037" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1037">
+        <v>114978318</v>
+      </c>
+      <c r="C1037">
+        <v>0.01172746525661074</v>
+      </c>
+      <c r="D1037">
+        <v>102141115</v>
+      </c>
+      <c r="E1037">
+        <v>0.0146390897731883</v>
+      </c>
+      <c r="J1037" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="1038" spans="1:10">
+      <c r="A1038" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1038">
+        <v>1738471282</v>
+      </c>
+      <c r="C1038">
+        <v>0.1773191842941252</v>
+      </c>
+      <c r="D1038">
+        <v>1001323760</v>
+      </c>
+      <c r="E1038">
+        <v>0.143511928714176</v>
+      </c>
+      <c r="J1038" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="1039" spans="1:10">
+      <c r="A1039" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1039">
+        <v>108418067</v>
+      </c>
+      <c r="C1039">
+        <v>0.01056025977774945</v>
+      </c>
+      <c r="D1039">
+        <v>87991822</v>
+      </c>
+      <c r="E1039">
+        <v>0.01194194216068325</v>
+      </c>
+      <c r="J1039" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="1040" spans="1:10">
+      <c r="A1040" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1040">
+        <v>320215765</v>
+      </c>
+      <c r="C1040">
+        <v>0.03119001986385507</v>
+      </c>
+      <c r="D1040">
+        <v>282225426</v>
+      </c>
+      <c r="E1040">
+        <v>0.03830264718880569</v>
+      </c>
+      <c r="J1040" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="1041" spans="1:10">
+      <c r="A1041" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1041">
+        <v>369792936</v>
+      </c>
+      <c r="C1041">
+        <v>0.03601899181744936</v>
+      </c>
+      <c r="D1041">
+        <v>308644898</v>
+      </c>
+      <c r="E1041">
+        <v>0.04188820547557227</v>
+      </c>
+      <c r="J1041" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="1042" spans="1:10">
+      <c r="A1042" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1042">
+        <v>3051809</v>
+      </c>
+      <c r="C1042">
+        <v>0.0002972557685618373</v>
+      </c>
+      <c r="D1042">
+        <v>2587407</v>
+      </c>
+      <c r="E1042">
+        <v>0.0003511538235922307</v>
+      </c>
+      <c r="J1042" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="1043" spans="1:10">
+      <c r="A1043" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1043">
+        <v>260305458</v>
+      </c>
+      <c r="C1043">
+        <v>0.0253545680541053</v>
+      </c>
+      <c r="D1043">
+        <v>213438435</v>
+      </c>
+      <c r="E1043">
+        <v>0.02896711748549486</v>
+      </c>
+      <c r="J1043" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="1044" spans="1:10">
+      <c r="A1044" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1044">
+        <v>210552854</v>
+      </c>
+      <c r="C1044">
+        <v>0.02050850837606754</v>
+      </c>
+      <c r="D1044">
+        <v>180757493</v>
+      </c>
+      <c r="E1044">
+        <v>0.02453177440189961</v>
+      </c>
+      <c r="J1044" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="1045" spans="1:10">
+      <c r="A1045" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1045">
+        <v>129243042</v>
+      </c>
+      <c r="C1045">
+        <v>0.01258867766003043</v>
+      </c>
+      <c r="D1045">
+        <v>112082674</v>
+      </c>
+      <c r="E1045">
+        <v>0.01521146828989081</v>
+      </c>
+      <c r="J1045" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="1046" spans="1:10">
+      <c r="A1046" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1046">
+        <v>1499810</v>
+      </c>
+      <c r="C1046">
+        <v>0.0001460861981358365</v>
+      </c>
+      <c r="D1046">
+        <v>1269303</v>
+      </c>
+      <c r="E1046">
+        <v>0.0001722653613239391</v>
+      </c>
+      <c r="J1046" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="1047" spans="1:10">
+      <c r="A1047" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1047">
+        <v>697980270</v>
+      </c>
+      <c r="C1047">
+        <v>0.0679854675046337</v>
+      </c>
+      <c r="D1047">
+        <v>526294651</v>
+      </c>
+      <c r="E1047">
+        <v>0.07142686830281769</v>
+      </c>
+      <c r="J1047" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="1048" spans="1:10">
+      <c r="A1048" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1048">
+        <v>41013879</v>
+      </c>
+      <c r="C1048">
+        <v>0.003994880454133007</v>
+      </c>
+      <c r="D1048">
+        <v>33417621</v>
+      </c>
+      <c r="E1048">
+        <v>0.004535322579519196</v>
+      </c>
+      <c r="J1048" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="1049" spans="1:10">
+      <c r="A1049" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1049">
+        <v>32389972</v>
+      </c>
+      <c r="C1049">
+        <v>0.003154884863553515</v>
+      </c>
+      <c r="D1049">
+        <v>25319132</v>
+      </c>
+      <c r="E1049">
+        <v>0.003436223992528583</v>
+      </c>
+      <c r="J1049" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="1050" spans="1:10">
+      <c r="A1050" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1050">
+        <v>43255143</v>
+      </c>
+      <c r="C1050">
+        <v>0.004213186597430303</v>
+      </c>
+      <c r="D1050">
+        <v>31811079</v>
+      </c>
+      <c r="E1050">
+        <v>0.004317288321259282</v>
+      </c>
+      <c r="J1050" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="1051" spans="1:10">
+      <c r="A1051" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1051">
+        <v>582105440</v>
+      </c>
+      <c r="C1051">
+        <v>0.05669889562263774</v>
+      </c>
+      <c r="D1051">
+        <v>523626707</v>
+      </c>
+      <c r="E1051">
+        <v>0.07106478427941899</v>
+      </c>
+      <c r="J1051" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="1052" spans="1:10">
+      <c r="A1052" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1052">
+        <v>94656354</v>
+      </c>
+      <c r="C1052">
+        <v>0.009219825768103882</v>
+      </c>
+      <c r="D1052">
+        <v>83309008</v>
+      </c>
+      <c r="E1052">
+        <v>0.01130640703177959</v>
+      </c>
+      <c r="J1052" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="1053" spans="1:10">
+      <c r="A1053" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1053">
+        <v>5446366376</v>
+      </c>
+      <c r="C1053">
+        <v>0.5304931674843441</v>
+      </c>
+      <c r="D1053">
+        <v>3819520154</v>
+      </c>
+      <c r="E1053">
+        <v>0.5183719091602851</v>
+      </c>
+      <c r="J1053" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="1054" spans="1:10">
+      <c r="A1054" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1054">
+        <v>102565795</v>
+      </c>
+      <c r="C1054">
+        <v>0.009990230129369448</v>
+      </c>
+      <c r="D1054">
+        <v>90747002</v>
+      </c>
+      <c r="E1054">
+        <v>0.01231586554872573</v>
+      </c>
+      <c r="J1054" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="1055" spans="1:10">
+      <c r="A1055" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1055">
+        <v>1823196875</v>
+      </c>
+      <c r="C1055">
+        <v>0.1775850940598396</v>
+      </c>
+      <c r="D1055">
+        <v>1045257990</v>
+      </c>
+      <c r="E1055">
+        <v>0.1418587565964031</v>
+      </c>
+      <c r="J1055" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="1056" spans="1:10">
+      <c r="A1056" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1056">
+        <v>131013797</v>
+      </c>
+      <c r="C1056">
+        <v>0.0116173465350614</v>
+      </c>
+      <c r="D1056">
+        <v>109330752</v>
+      </c>
+      <c r="E1056">
+        <v>0.01292228897881327</v>
+      </c>
+      <c r="J1056" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="1057" spans="1:10">
+      <c r="A1057" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1057">
+        <v>301775869</v>
+      </c>
+      <c r="C1057">
+        <v>0.02675927975808755</v>
+      </c>
+      <c r="D1057">
+        <v>263799507</v>
+      </c>
+      <c r="E1057">
+        <v>0.03117963975883449</v>
+      </c>
+      <c r="J1057" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="1058" spans="1:10">
+      <c r="A1058" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1058">
+        <v>381476837</v>
+      </c>
+      <c r="C1058">
+        <v>0.03382657942909731</v>
+      </c>
+      <c r="D1058">
+        <v>312518129</v>
+      </c>
+      <c r="E1058">
+        <v>0.03693791088216464</v>
+      </c>
+      <c r="J1058" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="1059" spans="1:10">
+      <c r="A1059" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1059">
+        <v>4673141</v>
+      </c>
+      <c r="C1059">
+        <v>0.0004143800091848597</v>
+      </c>
+      <c r="D1059">
+        <v>4032972</v>
+      </c>
+      <c r="E1059">
+        <v>0.0004766749397961015</v>
+      </c>
+      <c r="J1059" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="1060" spans="1:10">
+      <c r="A1060" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1060">
+        <v>244205243</v>
+      </c>
+      <c r="C1060">
+        <v>0.02165433716580152</v>
+      </c>
+      <c r="D1060">
+        <v>199941120</v>
+      </c>
+      <c r="E1060">
+        <v>0.0236319323166055</v>
+      </c>
+      <c r="J1060" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="1061" spans="1:10">
+      <c r="A1061" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1061">
+        <v>212778188</v>
+      </c>
+      <c r="C1061">
+        <v>0.0188676154855541</v>
+      </c>
+      <c r="D1061">
+        <v>185181826</v>
+      </c>
+      <c r="E1061">
+        <v>0.02188746556134834</v>
+      </c>
+      <c r="J1061" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="1062" spans="1:10">
+      <c r="A1062" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1062">
+        <v>116852647</v>
+      </c>
+      <c r="C1062">
+        <v>0.0103616391923837</v>
+      </c>
+      <c r="D1062">
+        <v>102169795</v>
+      </c>
+      <c r="E1062">
+        <v>0.01207590354721159</v>
+      </c>
+      <c r="J1062" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="1063" spans="1:10">
+      <c r="A1063" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1063">
+        <v>1564347</v>
+      </c>
+      <c r="C1063">
+        <v>0.000138714865275477</v>
+      </c>
+      <c r="D1063">
+        <v>1348939</v>
+      </c>
+      <c r="E1063">
+        <v>0.0001594371140225158</v>
+      </c>
+      <c r="J1063" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="1064" spans="1:10">
+      <c r="A1064" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1064">
+        <v>758430781</v>
+      </c>
+      <c r="C1064">
+        <v>0.06725210174417171</v>
+      </c>
+      <c r="D1064">
+        <v>566027712</v>
+      </c>
+      <c r="E1064">
+        <v>0.06690133865063409</v>
+      </c>
+      <c r="J1064" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="1065" spans="1:10">
+      <c r="A1065" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1065">
+        <v>60075134</v>
+      </c>
+      <c r="C1065">
+        <v>0.005327024067688451</v>
+      </c>
+      <c r="D1065">
+        <v>50768885</v>
+      </c>
+      <c r="E1065">
+        <v>0.006000600847437126</v>
+      </c>
+      <c r="J1065" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="1066" spans="1:10">
+      <c r="A1066" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1066">
+        <v>31995567</v>
+      </c>
+      <c r="C1066">
+        <v>0.002837133171743543</v>
+      </c>
+      <c r="D1066">
+        <v>24703216</v>
+      </c>
+      <c r="E1066">
+        <v>0.002919783226754387</v>
+      </c>
+      <c r="J1066" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="1067" spans="1:10">
+      <c r="A1067" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1067">
+        <v>42787631</v>
+      </c>
+      <c r="C1067">
+        <v>0.003794094577240102</v>
+      </c>
+      <c r="D1067">
+        <v>31986709</v>
+      </c>
+      <c r="E1067">
+        <v>0.003780651734465406</v>
+      </c>
+      <c r="J1067" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="1068" spans="1:10">
+      <c r="A1068" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1068">
+        <v>750704166</v>
+      </c>
+      <c r="C1068">
+        <v>0.06656696196459563</v>
+      </c>
+      <c r="D1068">
+        <v>660314090</v>
+      </c>
+      <c r="E1068">
+        <v>0.07804546599809459</v>
+      </c>
+      <c r="J1068" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="1069" spans="1:10">
+      <c r="A1069" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1069">
+        <v>104669012</v>
+      </c>
+      <c r="C1069">
+        <v>0.00928128343525911</v>
+      </c>
+      <c r="D1069">
+        <v>93277313</v>
+      </c>
+      <c r="E1069">
+        <v>0.01102486145666697</v>
+      </c>
+      <c r="J1069" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="1070" spans="1:10">
+      <c r="A1070" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1070">
+        <v>6079665346</v>
+      </c>
+      <c r="C1070">
+        <v>0.5391003143103007</v>
+      </c>
+      <c r="D1070">
+        <v>4627779962</v>
+      </c>
+      <c r="E1070">
+        <v>0.5469779444974958</v>
+      </c>
+      <c r="J1070" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="1071" spans="1:10">
+      <c r="A1071" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1071">
+        <v>93815242</v>
+      </c>
+      <c r="C1071">
+        <v>0.008318850392410551</v>
+      </c>
+      <c r="D1071">
+        <v>81790433</v>
+      </c>
+      <c r="E1071">
+        <v>0.009667175900594419</v>
+      </c>
+      <c r="J1071" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="1072" spans="1:10">
+      <c r="A1072" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1072">
+        <v>1960945732</v>
+      </c>
+      <c r="C1072">
+        <v>0.1738823438961442</v>
+      </c>
+      <c r="D1072">
+        <v>1145662215</v>
+      </c>
+      <c r="E1072">
+        <v>0.1354109245890607</v>
+      </c>
+      <c r="J1072" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="1073" spans="1:10">
+      <c r="A1073" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1073">
+        <v>136587207</v>
+      </c>
+      <c r="C1073">
+        <v>0.01202700847329213</v>
+      </c>
+      <c r="D1073">
+        <v>114374112</v>
+      </c>
+      <c r="E1073">
+        <v>0.01353567025396177</v>
+      </c>
+      <c r="J1073" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="1074" spans="1:10">
+      <c r="A1074" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1074">
+        <v>303262178</v>
+      </c>
+      <c r="C1074">
+        <v>0.02670335578671746</v>
+      </c>
+      <c r="D1074">
+        <v>268111485</v>
+      </c>
+      <c r="E1074">
+        <v>0.03172980833512411</v>
+      </c>
+      <c r="J1074" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="1075" spans="1:10">
+      <c r="A1075" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1075">
+        <v>376884154</v>
+      </c>
+      <c r="C1075">
+        <v>0.03318604291840842</v>
+      </c>
+      <c r="D1075">
+        <v>307653625</v>
+      </c>
+      <c r="E1075">
+        <v>0.03640944570075447</v>
+      </c>
+      <c r="J1075" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="1076" spans="1:10">
+      <c r="A1076" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1076">
+        <v>4745129</v>
+      </c>
+      <c r="C1076">
+        <v>0.0004178261489003447</v>
+      </c>
+      <c r="D1076">
+        <v>4158821</v>
+      </c>
+      <c r="E1076">
+        <v>0.0004921780699923735</v>
+      </c>
+      <c r="J1076" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="1077" spans="1:10">
+      <c r="A1077" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1077">
+        <v>257598086</v>
+      </c>
+      <c r="C1077">
+        <v>0.02268246368802193</v>
+      </c>
+      <c r="D1077">
+        <v>214907624</v>
+      </c>
+      <c r="E1077">
+        <v>0.02543336671786708</v>
+      </c>
+      <c r="J1077" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="1078" spans="1:10">
+      <c r="A1078" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1078">
+        <v>198444497</v>
+      </c>
+      <c r="C1078">
+        <v>0.01747377151432048</v>
+      </c>
+      <c r="D1078">
+        <v>172971230</v>
+      </c>
+      <c r="E1078">
+        <v>0.02047037998163588</v>
+      </c>
+      <c r="J1078" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="1079" spans="1:10">
+      <c r="A1079" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1079">
+        <v>115737470</v>
+      </c>
+      <c r="C1079">
+        <v>0.01019111205903342</v>
+      </c>
+      <c r="D1079">
+        <v>101187220</v>
+      </c>
+      <c r="E1079">
+        <v>0.01197505991421456</v>
+      </c>
+      <c r="J1079" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="1080" spans="1:10">
+      <c r="A1080" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1080">
+        <v>1522314</v>
+      </c>
+      <c r="C1080">
+        <v>0.0001340453749596859</v>
+      </c>
+      <c r="D1080">
+        <v>1293953</v>
+      </c>
+      <c r="E1080">
+        <v>0.0001531336141182421</v>
+      </c>
+      <c r="J1080" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="1081" spans="1:10">
+      <c r="A1081" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1081">
+        <v>824003032</v>
+      </c>
+      <c r="C1081">
+        <v>0.07255651290887298</v>
+      </c>
+      <c r="D1081">
+        <v>611963679</v>
+      </c>
+      <c r="E1081">
+        <v>0.0724231945629909</v>
+      </c>
+      <c r="J1081" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="1082" spans="1:10">
+      <c r="A1082" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1082">
+        <v>53087856</v>
+      </c>
+      <c r="C1082">
+        <v>0.004674581960965879</v>
+      </c>
+      <c r="D1082">
+        <v>43759003</v>
+      </c>
+      <c r="E1082">
+        <v>0.005178684449590516</v>
+      </c>
+      <c r="J1082" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="1083" spans="1:10">
+      <c r="A1083" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1083">
+        <v>30342026</v>
+      </c>
+      <c r="C1083">
+        <v>0.002671727549117027</v>
+      </c>
+      <c r="D1083">
+        <v>23348527</v>
+      </c>
+      <c r="E1083">
+        <v>0.002763194894905268</v>
+      </c>
+      <c r="J1083" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="1084" spans="1:10">
+      <c r="A1084" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1084">
+        <v>61507216</v>
+      </c>
+      <c r="C1084">
+        <v>0.005415937731273832</v>
+      </c>
+      <c r="D1084">
+        <v>47773542</v>
+      </c>
+      <c r="E1084">
+        <v>0.005653787383073134</v>
+      </c>
+      <c r="J1084" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="1085" spans="1:10">
+      <c r="A1085" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1085">
+        <v>600885825</v>
+      </c>
+      <c r="C1085">
+        <v>0.05291021807595884</v>
+      </c>
+      <c r="D1085">
+        <v>536964743</v>
+      </c>
+      <c r="E1085">
+        <v>0.06354740222377708</v>
+      </c>
+      <c r="J1085" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="1086" spans="1:10">
+      <c r="A1086" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1086">
+        <v>95610033</v>
+      </c>
+      <c r="C1086">
+        <v>0.008418816829768985</v>
+      </c>
+      <c r="D1086">
+        <v>84821861</v>
+      </c>
+      <c r="E1086">
+        <v>0.01003829206405887</v>
+      </c>
+      <c r="J1086" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="1087" spans="1:10">
+      <c r="A1087" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1087">
+        <v>6354085131</v>
+      </c>
+      <c r="C1087">
+        <v>0.5595006837686968</v>
+      </c>
+      <c r="D1087">
+        <v>4768308028</v>
+      </c>
+      <c r="E1087">
+        <v>0.5643081638642732</v>
+      </c>
+      <c r="J1087" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="1088" spans="1:10">
+      <c r="A1088" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1088">
+        <v>91587305</v>
+      </c>
+      <c r="C1088">
+        <v>0.008064600759286267</v>
+      </c>
+      <c r="D1088">
+        <v>79157063</v>
+      </c>
+      <c r="E1088">
+        <v>0.0093678882773759</v>
+      </c>
+      <c r="J1088" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="1089" spans="1:10">
+      <c r="A1089" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1089">
+        <v>1850817182</v>
+      </c>
+      <c r="C1089">
+        <v>0.1629712944524055</v>
+      </c>
+      <c r="D1089">
+        <v>1069075441</v>
+      </c>
+      <c r="E1089">
+        <v>0.1265203496922867</v>
+      </c>
+      <c r="J1089" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="1090" spans="1:10">
+      <c r="A1090" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1090">
+        <v>132998498</v>
+      </c>
+      <c r="C1090">
+        <v>0.01337561553951608</v>
+      </c>
+      <c r="D1090">
+        <v>111853045</v>
+      </c>
+      <c r="E1090">
+        <v>0.01528501612284315</v>
+      </c>
+      <c r="J1090" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="1091" spans="1:10">
+      <c r="A1091" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1091">
+        <v>312156400</v>
+      </c>
+      <c r="C1091">
+        <v>0.03139346727509208</v>
+      </c>
+      <c r="D1091">
+        <v>278039863</v>
+      </c>
+      <c r="E1091">
+        <v>0.03799488685129761</v>
+      </c>
+      <c r="J1091" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="1092" spans="1:10">
+      <c r="A1092" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1092">
+        <v>362186769</v>
+      </c>
+      <c r="C1092">
+        <v>0.03642500515790428</v>
+      </c>
+      <c r="D1092">
+        <v>294373307</v>
+      </c>
+      <c r="E1092">
+        <v>0.04022689542005455</v>
+      </c>
+      <c r="J1092" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="1093" spans="1:10">
+      <c r="A1093" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1093">
+        <v>4264430</v>
+      </c>
+      <c r="C1093">
+        <v>0.0004288723333941604</v>
+      </c>
+      <c r="D1093">
+        <v>3669110</v>
+      </c>
+      <c r="E1093">
+        <v>0.0005013936411519688</v>
+      </c>
+      <c r="J1093" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="1094" spans="1:10">
+      <c r="A1094" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1094">
+        <v>242330653</v>
+      </c>
+      <c r="C1094">
+        <v>0.02437111468708376</v>
+      </c>
+      <c r="D1094">
+        <v>200657027</v>
+      </c>
+      <c r="E1094">
+        <v>0.02742031647736342</v>
+      </c>
+      <c r="J1094" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="1095" spans="1:10">
+      <c r="A1095" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1095">
+        <v>164413877</v>
+      </c>
+      <c r="C1095">
+        <v>0.01653504995307004</v>
+      </c>
+      <c r="D1095">
+        <v>138777199</v>
+      </c>
+      <c r="E1095">
+        <v>0.0189642733838673</v>
+      </c>
+      <c r="J1095" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="1096" spans="1:10">
+      <c r="A1096" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1096">
+        <v>136446534</v>
+      </c>
+      <c r="C1096">
+        <v>0.01372238339476217</v>
+      </c>
+      <c r="D1096">
+        <v>121236103</v>
+      </c>
+      <c r="E1096">
+        <v>0.0165672359570155</v>
+      </c>
+      <c r="J1096" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="1097" spans="1:10">
+      <c r="A1097" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1097">
+        <v>3588354</v>
+      </c>
+      <c r="C1097">
+        <v>0.0003608795907130071</v>
+      </c>
+      <c r="D1097">
+        <v>3384590</v>
+      </c>
+      <c r="E1097">
+        <v>0.0004625132263427758</v>
+      </c>
+      <c r="J1097" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="1098" spans="1:10">
+      <c r="A1098" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1098">
+        <v>853149700</v>
+      </c>
+      <c r="C1098">
+        <v>0.08580098690177301</v>
+      </c>
+      <c r="D1098">
+        <v>635474040</v>
+      </c>
+      <c r="E1098">
+        <v>0.08683921789566186</v>
+      </c>
+      <c r="J1098" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="1099" spans="1:10">
+      <c r="A1099" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1099">
+        <v>45714300</v>
+      </c>
+      <c r="C1099">
+        <v>0.004597472232040547</v>
+      </c>
+      <c r="D1099">
+        <v>37143771</v>
+      </c>
+      <c r="E1099">
+        <v>0.005075795107752263</v>
+      </c>
+      <c r="J1099" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="1100" spans="1:10">
+      <c r="A1100" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1100">
+        <v>33818739</v>
+      </c>
+      <c r="C1100">
+        <v>0.003401139544412288</v>
+      </c>
+      <c r="D1100">
+        <v>26800648</v>
+      </c>
+      <c r="E1100">
+        <v>0.003662379837604277</v>
+      </c>
+      <c r="J1100" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="1101" spans="1:10">
+      <c r="A1101" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1101">
+        <v>58754201</v>
+      </c>
+      <c r="C1101">
+        <v>0.005908890820011001</v>
+      </c>
+      <c r="D1101">
+        <v>45267525</v>
+      </c>
+      <c r="E1101">
+        <v>0.006185927700637969</v>
+      </c>
+      <c r="J1101" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="1102" spans="1:10">
+      <c r="A1102" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1102">
+        <v>621113553</v>
+      </c>
+      <c r="C1102">
+        <v>0.06246518732347524</v>
+      </c>
+      <c r="D1102">
+        <v>555311935</v>
+      </c>
+      <c r="E1102">
+        <v>0.07588485302015896</v>
+      </c>
+      <c r="J1102" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="1103" spans="1:10">
+      <c r="A1103" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1103">
+        <v>94706621</v>
+      </c>
+      <c r="C1103">
+        <v>0.009524613966261936</v>
+      </c>
+      <c r="D1103">
+        <v>82657377</v>
+      </c>
+      <c r="E1103">
+        <v>0.01129535043160358</v>
+      </c>
+      <c r="J1103" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="1104" spans="1:10">
+      <c r="A1104" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1104">
+        <v>4968155345</v>
+      </c>
+      <c r="C1104">
+        <v>0.4996457616785409</v>
+      </c>
+      <c r="D1104">
+        <v>3648317067</v>
+      </c>
+      <c r="E1104">
+        <v>0.4985522315493406</v>
+      </c>
+      <c r="J1104" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="1105" spans="1:10">
+      <c r="A1105" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1105">
+        <v>96143527</v>
+      </c>
+      <c r="C1105">
+        <v>0.009669123133744595</v>
+      </c>
+      <c r="D1105">
+        <v>83469042</v>
+      </c>
+      <c r="E1105">
+        <v>0.01140626661284252</v>
+      </c>
+      <c r="J1105" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="1106" spans="1:10">
+      <c r="A1106" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1106">
+        <v>1813413824</v>
+      </c>
+      <c r="C1106">
+        <v>0.1823744364682049</v>
+      </c>
+      <c r="D1106">
+        <v>1051391512</v>
+      </c>
+      <c r="E1106">
+        <v>0.1436754467644616</v>
+      </c>
+      <c r="J1106" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="1107" spans="1:10">
+      <c r="A1107" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1107">
+        <v>81263304</v>
+      </c>
+      <c r="C1107">
+        <v>0.01251963643082234</v>
+      </c>
+      <c r="D1107">
+        <v>68181931</v>
+      </c>
+      <c r="E1107">
+        <v>0.01454192825467646</v>
+      </c>
+      <c r="J1107" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="1108" spans="1:10">
+      <c r="A1108" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1108">
+        <v>149570020</v>
+      </c>
+      <c r="C1108">
+        <v>0.0230431471424153</v>
+      </c>
+      <c r="D1108">
+        <v>128811170</v>
+      </c>
+      <c r="E1108">
+        <v>0.02747300883192841</v>
+      </c>
+      <c r="J1108" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="1109" spans="1:10">
+      <c r="A1109" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1109">
+        <v>205347882</v>
+      </c>
+      <c r="C1109">
+        <v>0.03163642994972745</v>
+      </c>
+      <c r="D1109">
+        <v>171378181</v>
+      </c>
+      <c r="E1109">
+        <v>0.0365517546359747</v>
+      </c>
+      <c r="J1109" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="1110" spans="1:10">
+      <c r="A1110" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1110">
+        <v>2481765</v>
+      </c>
+      <c r="C1110">
+        <v>0.000382347184735927</v>
+      </c>
+      <c r="D1110">
+        <v>2165159</v>
+      </c>
+      <c r="E1110">
+        <v>0.0004617878428518993</v>
+      </c>
+      <c r="J1110" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="1111" spans="1:10">
+      <c r="A1111" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1111">
+        <v>183877898</v>
+      </c>
+      <c r="C1111">
+        <v>0.02832870825217535</v>
+      </c>
+      <c r="D1111">
+        <v>154030608</v>
+      </c>
+      <c r="E1111">
+        <v>0.032851842382701</v>
+      </c>
+      <c r="J1111" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="1112" spans="1:10">
+      <c r="A1112" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1112">
+        <v>152898827</v>
+      </c>
+      <c r="C1112">
+        <v>0.0235559918255256</v>
+      </c>
+      <c r="D1112">
+        <v>132112368</v>
+      </c>
+      <c r="E1112">
+        <v>0.02817709250580502</v>
+      </c>
+      <c r="J1112" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="1113" spans="1:10">
+      <c r="A1113" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1113">
+        <v>107975593</v>
+      </c>
+      <c r="C1113">
+        <v>0.0166350013009863</v>
+      </c>
+      <c r="D1113">
+        <v>97565611</v>
+      </c>
+      <c r="E1113">
+        <v>0.02080891659236922</v>
+      </c>
+      <c r="J1113" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="1114" spans="1:10">
+      <c r="A1114" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1114">
+        <v>591431</v>
+      </c>
+      <c r="C1114">
+        <v>9.111740145241554e-05</v>
+      </c>
+      <c r="D1114">
+        <v>480783</v>
+      </c>
+      <c r="E1114">
+        <v>0.0001025420047441618</v>
+      </c>
+      <c r="J1114" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="1115" spans="1:10">
+      <c r="A1115" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1115">
+        <v>555981004</v>
+      </c>
+      <c r="C1115">
+        <v>0.0856558826665918</v>
+      </c>
+      <c r="D1115">
+        <v>413759887</v>
+      </c>
+      <c r="E1115">
+        <v>0.08824723065436561</v>
+      </c>
+      <c r="J1115" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="1116" spans="1:10">
+      <c r="A1116" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1116">
+        <v>26899833</v>
+      </c>
+      <c r="C1116">
+        <v>0.004144258387646126</v>
+      </c>
+      <c r="D1116">
+        <v>21599407</v>
+      </c>
+      <c r="E1116">
+        <v>0.004606748772450529</v>
+      </c>
+      <c r="J1116" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="1117" spans="1:10">
+      <c r="A1117" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1117">
+        <v>20611209</v>
+      </c>
+      <c r="C1117">
+        <v>0.003175416582615115</v>
+      </c>
+      <c r="D1117">
+        <v>15942083</v>
+      </c>
+      <c r="E1117">
+        <v>0.003400147573058577</v>
+      </c>
+      <c r="J1117" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="1118" spans="1:10">
+      <c r="A1118" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1118">
+        <v>39013496</v>
+      </c>
+      <c r="C1118">
+        <v>0.006010520884252277</v>
+      </c>
+      <c r="D1118">
+        <v>29919052</v>
+      </c>
+      <c r="E1118">
+        <v>0.006381173153220527</v>
+      </c>
+      <c r="J1118" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="1119" spans="1:10">
+      <c r="A1119" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1119">
+        <v>385658255</v>
+      </c>
+      <c r="C1119">
+        <v>0.05941551600148292</v>
+      </c>
+      <c r="D1119">
+        <v>340499361</v>
+      </c>
+      <c r="E1119">
+        <v>0.07262213325147951</v>
+      </c>
+      <c r="J1119" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="1120" spans="1:10">
+      <c r="A1120" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1120">
+        <v>55386164</v>
+      </c>
+      <c r="C1120">
+        <v>0.008532936792453094</v>
+      </c>
+      <c r="D1120">
+        <v>50136863</v>
+      </c>
+      <c r="E1120">
+        <v>0.01069325338791803</v>
+      </c>
+      <c r="J1120" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="1121" spans="1:10">
+      <c r="A1121" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1121">
+        <v>3267824847</v>
+      </c>
+      <c r="C1121">
+        <v>0.5034496136663067</v>
+      </c>
+      <c r="D1121">
+        <v>2309022456</v>
+      </c>
+      <c r="E1121">
+        <v>0.492471222230254</v>
+      </c>
+      <c r="J1121" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="1122" spans="1:10">
+      <c r="A1122" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1122">
+        <v>67004746</v>
+      </c>
+      <c r="C1122">
+        <v>0.01032292581974759</v>
+      </c>
+      <c r="D1122">
+        <v>59381120</v>
+      </c>
+      <c r="E1122">
+        <v>0.01266488018243915</v>
+      </c>
+      <c r="J1122" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="1123" spans="1:10">
+      <c r="A1123" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1123">
+        <v>1188481448</v>
+      </c>
+      <c r="C1123">
+        <v>0.1831005497110637</v>
+      </c>
+      <c r="D1123">
+        <v>693658396</v>
+      </c>
+      <c r="E1123">
+        <v>0.1479443377437632</v>
+      </c>
+      <c r="J1123" t="s">
+        <v>91</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
